--- a/fig/HybridSimData.xlsx
+++ b/fig/HybridSimData.xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\abuqiqi\Project\CompressData\fig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63EE4F6E-6EE5-4176-948F-81792DF28CC4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431E7450-1D06-400B-830E-9025B82DB442}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="599" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IO propt." sheetId="7" r:id="rId1"/>
-    <sheet name="MemQubits" sheetId="8" r:id="rId2"/>
-    <sheet name="#Qubits" sheetId="1" r:id="rId3"/>
-    <sheet name="#Levels" sheetId="3" r:id="rId4"/>
-    <sheet name="InitSV" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId2"/>
+    <sheet name="MemQubits" sheetId="8" r:id="rId3"/>
+    <sheet name="#Qubits" sheetId="1" r:id="rId4"/>
+    <sheet name="#Levels" sheetId="3" r:id="rId5"/>
+    <sheet name="InitSV" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="29">
   <si>
     <t>Metrics</t>
   </si>
@@ -71,6 +72,66 @@
   </si>
   <si>
     <t>#Qubits</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SimT.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>$IO_H$</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>$IO_L$</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CompT.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>$IO_L$</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>$IO_H$</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Single-level</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlockSim</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HybridSim</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Method</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>$T$-level</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>$cost(svIO)$</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>$h \times cost(svIO)$</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>$hT \times cost(svIO)$</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>$T \times cost(svIO)$</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -314,7 +375,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -334,12 +395,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -355,9 +410,6 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -449,14 +501,47 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -758,7 +843,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -778,7 +863,7 @@
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -789,131 +874,131 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="45">
+      <c r="A2" s="42">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="15">
+      <c r="B2" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="12">
         <v>8.9325100000000006</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="13">
         <v>3.9050400000000001</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="15">
         <f>C2/D2</f>
         <v>2.2874311146620778</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="43"/>
-      <c r="B3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="10">
+      <c r="A3" s="40"/>
+      <c r="B3" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="8">
         <v>7.0778600000000003</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="9">
         <v>2.1269800000000001</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="16">
         <f t="shared" ref="E3:E4" si="0">C3/D3</f>
         <v>3.3276570536629397</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="43"/>
-      <c r="B4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="10">
+      <c r="A4" s="40"/>
+      <c r="B4" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="8">
         <v>1.84548</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="9">
         <v>1.75318</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="16">
         <f t="shared" si="0"/>
         <v>1.0526471896781848</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="44"/>
-      <c r="B5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="12">
+      <c r="A5" s="41"/>
+      <c r="B5" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="10">
         <v>9.1750000000000009E-3</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="11">
         <v>2.4885999999999998E-2</v>
       </c>
-      <c r="E5" s="17"/>
+      <c r="E5" s="14"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="43">
+      <c r="A6" s="40">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="10">
+      <c r="B6" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="8">
         <v>44.390900000000002</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="9">
         <v>3.6844000000000001</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="18">
         <f>C6/D6</f>
         <v>12.048338942568668</v>
       </c>
-      <c r="I6" s="22"/>
+      <c r="I6" s="19"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="43"/>
-      <c r="B7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="10">
+      <c r="A7" s="40"/>
+      <c r="B7" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="8">
         <v>34.303899999999999</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="9">
         <v>1.86747</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="17">
         <f t="shared" ref="E7:E8" si="1">C7/D7</f>
         <v>18.369183976181677</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="43"/>
-      <c r="B8" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="10">
+      <c r="A8" s="40"/>
+      <c r="B8" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="8">
         <v>10.031499999999999</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="9">
         <v>1.7751999999999999</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="16">
         <f t="shared" si="1"/>
         <v>5.6509125732311851</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="44"/>
-      <c r="B9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="12">
+      <c r="A9" s="41"/>
+      <c r="B9" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="10">
         <v>5.5441999999999998E-2</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="11">
         <v>4.1741E-2</v>
       </c>
-      <c r="E9" s="17"/>
+      <c r="E9" s="14"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
@@ -936,10 +1021,100 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE10F391-D643-40E9-8CBA-0BC40E0D3325}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.375" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="20.375" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="5" max="5" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="54"/>
+      <c r="D1" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="54"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="51"/>
+      <c r="B2" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="56" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F87F0E29-B821-46E2-B1AA-4C9BBB7351DE}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -952,297 +1127,297 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="25" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="25">
+      <c r="A2" s="22">
         <v>19</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="32">
+      <c r="C2" s="29">
         <v>108.32599999999999</v>
       </c>
-      <c r="D2" s="32">
+      <c r="D2" s="29">
         <v>53.730800000000002</v>
       </c>
-      <c r="E2" s="39">
+      <c r="E2" s="36">
         <f>C2/D2</f>
         <v>2.0160876071080271</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="25">
+      <c r="A3" s="22">
         <v>19</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="32">
+      <c r="C3" s="29">
         <v>81.946799999999996</v>
       </c>
-      <c r="D3" s="32">
+      <c r="D3" s="29">
         <v>26.991399999999999</v>
       </c>
-      <c r="E3" s="39">
+      <c r="E3" s="36">
         <f t="shared" ref="E3:E4" si="0">C3/D3</f>
         <v>3.036033699622843</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="25">
+      <c r="A4" s="22">
         <v>19</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C4" s="29">
         <v>26.208600000000001</v>
       </c>
-      <c r="D4" s="32">
+      <c r="D4" s="29">
         <v>26.409300000000002</v>
       </c>
-      <c r="E4" s="39">
+      <c r="E4" s="36">
         <f t="shared" si="0"/>
         <v>0.99240040440299437</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="25">
+      <c r="A5" s="22">
         <v>19</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="33">
+      <c r="C5" s="30">
         <v>0.171067</v>
       </c>
-      <c r="D5" s="33">
+      <c r="D5" s="30">
         <v>0.33018399999999998</v>
       </c>
-      <c r="E5" s="38"/>
+      <c r="E5" s="35"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="27">
-        <v>18</v>
-      </c>
-      <c r="B6" s="31" t="s">
+      <c r="A6" s="24">
+        <v>18</v>
+      </c>
+      <c r="B6" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="31">
         <v>138.435</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="31">
         <v>56.101399999999998</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E6" s="36">
         <f t="shared" ref="E6:E16" si="1">C6/D6</f>
         <v>2.4675854791502529</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="25">
-        <v>18</v>
-      </c>
-      <c r="B7" s="29" t="s">
+      <c r="A7" s="22">
+        <v>18</v>
+      </c>
+      <c r="B7" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="29">
         <v>110.631</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="29">
         <v>28.862100000000002</v>
       </c>
-      <c r="E7" s="39">
+      <c r="E7" s="36">
         <f t="shared" si="1"/>
         <v>3.8330890683630088</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="25">
-        <v>18</v>
-      </c>
-      <c r="B8" s="29" t="s">
+      <c r="A8" s="22">
+        <v>18</v>
+      </c>
+      <c r="B8" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="29">
         <v>27.625900000000001</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="29">
         <v>26.878799999999998</v>
       </c>
-      <c r="E8" s="39">
+      <c r="E8" s="36">
         <f t="shared" si="1"/>
         <v>1.0277951396639733</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="26">
-        <v>18</v>
-      </c>
-      <c r="B9" s="30" t="s">
+      <c r="A9" s="23">
+        <v>18</v>
+      </c>
+      <c r="B9" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="30">
         <v>0.177343</v>
       </c>
-      <c r="D9" s="33">
+      <c r="D9" s="30">
         <v>0.36058299999999999</v>
       </c>
-      <c r="E9" s="38"/>
+      <c r="E9" s="35"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="27">
+      <c r="A10" s="24">
         <v>17</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="34">
+      <c r="C10" s="31">
         <v>162.624</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="31">
         <v>55.640599999999999</v>
       </c>
-      <c r="E10" s="39">
+      <c r="E10" s="36">
         <f t="shared" ref="E10" si="2">C10/D10</f>
         <v>2.9227578422950149</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="25">
+      <c r="A11" s="22">
         <v>17</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="32">
+      <c r="C11" s="29">
         <v>135.79900000000001</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11" s="29">
         <v>28.547499999999999</v>
       </c>
-      <c r="E11" s="39">
+      <c r="E11" s="36">
         <f t="shared" si="1"/>
         <v>4.7569489447412208</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="25">
+      <c r="A12" s="22">
         <v>17</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C12" s="29">
         <v>26.661200000000001</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="29">
         <v>26.7011</v>
       </c>
-      <c r="E12" s="39">
+      <c r="E12" s="36">
         <f t="shared" si="1"/>
         <v>0.99850567954129232</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="26">
+      <c r="A13" s="23">
         <v>17</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="33">
+      <c r="C13" s="30">
         <v>0.16329199999999999</v>
       </c>
-      <c r="D13" s="33">
+      <c r="D13" s="30">
         <v>0.392042</v>
       </c>
-      <c r="E13" s="38"/>
+      <c r="E13" s="35"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="27">
+      <c r="A14" s="24">
         <v>16</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="34">
+      <c r="C14" s="31">
         <v>188.994</v>
       </c>
-      <c r="D14" s="34">
+      <c r="D14" s="31">
         <v>56.413800000000002</v>
       </c>
-      <c r="E14" s="39">
+      <c r="E14" s="36">
         <f t="shared" ref="E14" si="3">C14/D14</f>
         <v>3.350137732257001</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="25">
+      <c r="A15" s="22">
         <v>16</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="32">
+      <c r="C15" s="29">
         <v>161.904</v>
       </c>
-      <c r="D15" s="32">
+      <c r="D15" s="29">
         <v>29.235099999999999</v>
       </c>
-      <c r="E15" s="39">
+      <c r="E15" s="36">
         <f t="shared" si="1"/>
         <v>5.5380005541284278</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="25">
+      <c r="A16" s="22">
         <v>16</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="32">
+      <c r="C16" s="29">
         <v>26.934100000000001</v>
       </c>
-      <c r="D16" s="32">
+      <c r="D16" s="29">
         <v>26.5898</v>
       </c>
-      <c r="E16" s="39">
+      <c r="E16" s="36">
         <f t="shared" si="1"/>
         <v>1.0129485742653197</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="26">
+      <c r="A17" s="23">
         <v>16</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="33">
+      <c r="C17" s="30">
         <v>0.15568799999999999</v>
       </c>
-      <c r="D17" s="33">
+      <c r="D17" s="30">
         <v>0.58884999999999998</v>
       </c>
-      <c r="E17" s="38"/>
+      <c r="E17" s="35"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1251,12 +1426,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B10" sqref="B10:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1269,212 +1444,212 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="25" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="48">
-        <v>18</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="34">
+      <c r="A2" s="43">
+        <v>18</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="31">
         <v>90.901600000000002</v>
       </c>
-      <c r="D2" s="34">
+      <c r="D2" s="31">
         <v>14.1393</v>
       </c>
-      <c r="E2" s="39">
+      <c r="E2" s="36">
         <f t="shared" ref="E2:E12" si="0">C2/D2</f>
         <v>6.4290028502118206</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="46"/>
-      <c r="B3" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="32">
+      <c r="A3" s="44"/>
+      <c r="B3" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="29">
         <v>69.791799999999995</v>
       </c>
-      <c r="D3" s="32">
+      <c r="D3" s="29">
         <v>7.1901799999999998</v>
       </c>
-      <c r="E3" s="39">
+      <c r="E3" s="36">
         <f t="shared" si="0"/>
         <v>9.7065442033440057</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="46"/>
-      <c r="B4" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="32">
+      <c r="A4" s="44"/>
+      <c r="B4" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="29">
         <v>21.0319</v>
       </c>
-      <c r="D4" s="32">
+      <c r="D4" s="29">
         <v>6.8321500000000004</v>
       </c>
-      <c r="E4" s="39">
+      <c r="E4" s="36">
         <f t="shared" si="0"/>
         <v>3.0783721083407127</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="47"/>
-      <c r="B5" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="33">
+      <c r="A5" s="45"/>
+      <c r="B5" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="30">
         <v>7.7977000000000005E-2</v>
       </c>
-      <c r="D5" s="33">
+      <c r="D5" s="30">
         <v>0.11702</v>
       </c>
-      <c r="E5" s="38"/>
+      <c r="E5" s="35"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="48">
+      <c r="A6" s="43">
         <f t="shared" ref="A6" si="1">A2+2</f>
         <v>20</v>
       </c>
-      <c r="B6" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="34">
+      <c r="B6" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="31">
         <v>365.78800000000001</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="31">
         <v>55.903199999999998</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E6" s="36">
         <f t="shared" ref="E6" si="2">C6/D6</f>
         <v>6.5432390274617553</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="46"/>
-      <c r="B7" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="32">
+      <c r="A7" s="44"/>
+      <c r="B7" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="29">
         <v>281.42500000000001</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="29">
         <v>28.243300000000001</v>
       </c>
-      <c r="E7" s="39">
+      <c r="E7" s="36">
         <f t="shared" si="0"/>
         <v>9.9643101195681805</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="46"/>
-      <c r="B8" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="32">
+      <c r="A8" s="44"/>
+      <c r="B8" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="29">
         <v>83.981800000000007</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="29">
         <v>27.0731</v>
       </c>
-      <c r="E8" s="39">
+      <c r="E8" s="36">
         <f t="shared" si="0"/>
         <v>3.1020385548755041</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="47"/>
-      <c r="B9" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="33">
+      <c r="A9" s="45"/>
+      <c r="B9" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="30">
         <v>0.381166</v>
       </c>
-      <c r="D9" s="33">
+      <c r="D9" s="30">
         <v>0.58686499999999997</v>
       </c>
-      <c r="E9" s="38"/>
+      <c r="E9" s="35"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="48">
+      <c r="A10" s="43">
         <f t="shared" ref="A10" si="3">A6+2</f>
         <v>22</v>
       </c>
-      <c r="B10" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="34">
+      <c r="B10" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="31">
         <v>1423.42</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="31">
         <v>216.029</v>
       </c>
-      <c r="E10" s="39">
+      <c r="E10" s="36">
         <f t="shared" ref="E10" si="4">C10/D10</f>
         <v>6.5890227700910531</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="46"/>
-      <c r="B11" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="32">
+      <c r="A11" s="44"/>
+      <c r="B11" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="29">
         <v>1092.5899999999999</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11" s="29">
         <v>109.678</v>
       </c>
-      <c r="E11" s="39">
+      <c r="E11" s="36">
         <f t="shared" si="0"/>
         <v>9.9617972610733236</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="46"/>
-      <c r="B12" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="32">
+      <c r="A12" s="44"/>
+      <c r="B12" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="29">
         <v>329.17099999999999</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="29">
         <v>104.008</v>
       </c>
-      <c r="E12" s="39">
+      <c r="E12" s="36">
         <f t="shared" si="0"/>
         <v>3.164862318283209</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="47"/>
-      <c r="B13" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="33">
+      <c r="A13" s="45"/>
+      <c r="B13" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="30">
         <v>1.6575299999999999</v>
       </c>
-      <c r="D13" s="33">
+      <c r="D13" s="30">
         <v>2.3425099999999999</v>
       </c>
-      <c r="E13" s="38"/>
+      <c r="E13" s="35"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
@@ -1489,12 +1664,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1505,210 +1680,210 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="25" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="48">
+      <c r="A2" s="43">
         <v>5</v>
       </c>
-      <c r="B2" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="34">
+      <c r="B2" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="31">
         <v>642.86</v>
       </c>
-      <c r="D2" s="34">
+      <c r="D2" s="31">
         <v>55.164700000000003</v>
       </c>
-      <c r="E2" s="39">
+      <c r="E2" s="36">
         <f>C2/D2</f>
         <v>11.653466800327021</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="46"/>
-      <c r="B3" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="32">
+      <c r="A3" s="44"/>
+      <c r="B3" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="29">
         <v>503.28199999999998</v>
       </c>
-      <c r="D3" s="32">
+      <c r="D3" s="29">
         <v>27.528300000000002</v>
       </c>
-      <c r="E3" s="39">
+      <c r="E3" s="36">
         <f>C3/D3</f>
         <v>18.282349436761439</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="46"/>
-      <c r="B4" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="32">
+      <c r="A4" s="44"/>
+      <c r="B4" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="29">
         <v>138.93</v>
       </c>
-      <c r="D4" s="32">
+      <c r="D4" s="29">
         <v>26.882000000000001</v>
       </c>
-      <c r="E4" s="39">
+      <c r="E4" s="36">
         <f>C4/D4</f>
         <v>5.1681422513205861</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="47"/>
-      <c r="B5" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="33">
+      <c r="A5" s="45"/>
+      <c r="B5" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="30">
         <v>0.64837199999999995</v>
       </c>
-      <c r="D5" s="33">
+      <c r="D5" s="30">
         <v>0.75438000000000005</v>
       </c>
-      <c r="E5" s="38"/>
+      <c r="E5" s="35"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="48">
+      <c r="A6" s="43">
         <v>10</v>
       </c>
-      <c r="B6" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="34">
+      <c r="B6" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="31">
         <v>1348.71</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="31">
         <v>55.703800000000001</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E6" s="36">
         <f>C6/D6</f>
         <v>24.212172239595862</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="46"/>
-      <c r="B7" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="32">
+      <c r="A7" s="44"/>
+      <c r="B7" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="29">
         <v>1067.4100000000001</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="29">
         <v>27.756399999999999</v>
       </c>
-      <c r="E7" s="39">
+      <c r="E7" s="36">
         <f>C7/D7</f>
         <v>38.456356011586522</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="46"/>
-      <c r="B8" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="32">
+      <c r="A8" s="44"/>
+      <c r="B8" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="29">
         <v>279.91899999999998</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="29">
         <v>26.558</v>
       </c>
-      <c r="E8" s="39">
+      <c r="E8" s="36">
         <f>C8/D8</f>
         <v>10.539912644024399</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="47"/>
-      <c r="B9" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="33">
+      <c r="A9" s="45"/>
+      <c r="B9" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="30">
         <v>1.3798699999999999</v>
       </c>
-      <c r="D9" s="33">
+      <c r="D9" s="30">
         <v>1.38944</v>
       </c>
-      <c r="E9" s="38"/>
+      <c r="E9" s="35"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="48">
+      <c r="A10" s="43">
         <v>15</v>
       </c>
-      <c r="B10" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="34">
+      <c r="B10" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="31">
         <v>1989.26</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="31">
         <v>56.359000000000002</v>
       </c>
-      <c r="E10" s="39">
+      <c r="E10" s="36">
         <f>C10/D10</f>
         <v>35.29622597987899</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="46"/>
-      <c r="B11" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="32">
+      <c r="A11" s="44"/>
+      <c r="B11" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="29">
         <v>1568.29</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11" s="29">
         <v>27.628799999999998</v>
       </c>
-      <c r="E11" s="39">
+      <c r="E11" s="36">
         <f>C11/D11</f>
         <v>56.762870627750758</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="46"/>
-      <c r="B12" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="32">
+      <c r="A12" s="44"/>
+      <c r="B12" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="29">
         <v>418.97</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="29">
         <v>26.7866</v>
       </c>
-      <c r="E12" s="39">
+      <c r="E12" s="36">
         <f>C12/D12</f>
         <v>15.641029469958861</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="47"/>
-      <c r="B13" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="33">
+      <c r="A13" s="45"/>
+      <c r="B13" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="30">
         <v>1.9994000000000001</v>
       </c>
-      <c r="D13" s="33">
+      <c r="D13" s="30">
         <v>1.9435800000000001</v>
       </c>
-      <c r="E13" s="38"/>
+      <c r="E13" s="35"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
@@ -1722,7 +1897,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I37"/>
   <sheetViews>
@@ -1739,632 +1914,632 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="25" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="27">
+      <c r="A2" s="24">
         <v>20</v>
       </c>
-      <c r="B2" s="27">
-        <v>18</v>
-      </c>
-      <c r="C2" s="40">
+      <c r="B2" s="24">
+        <v>18</v>
+      </c>
+      <c r="C2" s="37">
         <v>1</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="37">
+      <c r="E2" s="34">
         <v>34.705599999999997</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="25">
+      <c r="A3" s="22">
         <v>20</v>
       </c>
-      <c r="B3" s="25">
-        <v>18</v>
-      </c>
-      <c r="C3" s="41">
+      <c r="B3" s="22">
+        <v>18</v>
+      </c>
+      <c r="C3" s="38">
         <v>1</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="35">
+      <c r="E3" s="32">
         <v>27.665800000000001</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="25">
+      <c r="A4" s="22">
         <v>20</v>
       </c>
-      <c r="B4" s="25">
-        <v>18</v>
-      </c>
-      <c r="C4" s="41">
+      <c r="B4" s="22">
+        <v>18</v>
+      </c>
+      <c r="C4" s="38">
         <v>1</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="35">
+      <c r="E4" s="32">
         <v>6.7174800000000001</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="25">
+      <c r="A5" s="22">
         <v>20</v>
       </c>
-      <c r="B5" s="25">
-        <v>18</v>
-      </c>
-      <c r="C5" s="42">
+      <c r="B5" s="22">
+        <v>18</v>
+      </c>
+      <c r="C5" s="39">
         <v>1</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="36">
+      <c r="E5" s="33">
         <v>0.32237300000000002</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="25">
+      <c r="A6" s="22">
         <v>20</v>
       </c>
-      <c r="B6" s="25">
-        <v>18</v>
-      </c>
-      <c r="C6" s="40">
+      <c r="B6" s="22">
+        <v>18</v>
+      </c>
+      <c r="C6" s="37">
         <v>2</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="37">
+      <c r="E6" s="34">
         <v>41.4482</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="25">
+      <c r="A7" s="22">
         <v>20</v>
       </c>
-      <c r="B7" s="25">
-        <v>18</v>
-      </c>
-      <c r="C7" s="41">
+      <c r="B7" s="22">
+        <v>18</v>
+      </c>
+      <c r="C7" s="38">
         <v>2</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="35">
+      <c r="E7" s="32">
         <v>27.582699999999999</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="25">
+      <c r="A8" s="22">
         <v>20</v>
       </c>
-      <c r="B8" s="25">
-        <v>18</v>
-      </c>
-      <c r="C8" s="41">
+      <c r="B8" s="22">
+        <v>18</v>
+      </c>
+      <c r="C8" s="38">
         <v>2</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="35">
+      <c r="E8" s="32">
         <v>13.3645</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="25">
+      <c r="A9" s="22">
         <v>20</v>
       </c>
-      <c r="B9" s="25">
-        <v>18</v>
-      </c>
-      <c r="C9" s="42">
+      <c r="B9" s="22">
+        <v>18</v>
+      </c>
+      <c r="C9" s="39">
         <v>2</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="36">
+      <c r="E9" s="33">
         <v>0.50102899999999995</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="25">
+      <c r="A10" s="22">
         <v>20</v>
       </c>
-      <c r="B10" s="25">
-        <v>18</v>
-      </c>
-      <c r="C10" s="40">
+      <c r="B10" s="22">
+        <v>18</v>
+      </c>
+      <c r="C10" s="37">
         <v>3</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="37">
+      <c r="E10" s="34">
         <v>48.0961</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="25">
+      <c r="A11" s="22">
         <v>20</v>
       </c>
-      <c r="B11" s="25">
-        <v>18</v>
-      </c>
-      <c r="C11" s="41">
+      <c r="B11" s="22">
+        <v>18</v>
+      </c>
+      <c r="C11" s="38">
         <v>3</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="35">
+      <c r="E11" s="32">
         <v>27.599699999999999</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="25">
+      <c r="A12" s="22">
         <v>20</v>
       </c>
-      <c r="B12" s="25">
-        <v>18</v>
-      </c>
-      <c r="C12" s="41">
+      <c r="B12" s="22">
+        <v>18</v>
+      </c>
+      <c r="C12" s="38">
         <v>3</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="35">
+      <c r="E12" s="32">
         <v>19.901199999999999</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="25">
+      <c r="A13" s="22">
         <v>20</v>
       </c>
-      <c r="B13" s="25">
-        <v>18</v>
-      </c>
-      <c r="C13" s="42">
+      <c r="B13" s="22">
+        <v>18</v>
+      </c>
+      <c r="C13" s="39">
         <v>3</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="36">
+      <c r="E13" s="33">
         <v>0.59528400000000004</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="25">
+      <c r="A14" s="22">
         <v>20</v>
       </c>
-      <c r="B14" s="25">
-        <v>18</v>
-      </c>
-      <c r="C14" s="40">
+      <c r="B14" s="22">
+        <v>18</v>
+      </c>
+      <c r="C14" s="37">
         <v>4</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="37">
+      <c r="E14" s="34">
         <v>54.608499999999999</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="25">
+      <c r="A15" s="22">
         <v>20</v>
       </c>
-      <c r="B15" s="25">
-        <v>18</v>
-      </c>
-      <c r="C15" s="41">
+      <c r="B15" s="22">
+        <v>18</v>
+      </c>
+      <c r="C15" s="38">
         <v>4</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="35">
+      <c r="E15" s="32">
         <v>27.4331</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="25">
+      <c r="A16" s="22">
         <v>20</v>
       </c>
-      <c r="B16" s="25">
-        <v>18</v>
-      </c>
-      <c r="C16" s="41">
+      <c r="B16" s="22">
+        <v>18</v>
+      </c>
+      <c r="C16" s="38">
         <v>4</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="35">
+      <c r="E16" s="32">
         <v>26.438099999999999</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="26">
+      <c r="A17" s="23">
         <v>20</v>
       </c>
-      <c r="B17" s="26">
-        <v>18</v>
-      </c>
-      <c r="C17" s="42">
+      <c r="B17" s="23">
+        <v>18</v>
+      </c>
+      <c r="C17" s="39">
         <v>4</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="36">
+      <c r="E17" s="33">
         <v>0.73732299999999995</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="27">
+      <c r="A18" s="24">
         <v>22</v>
       </c>
-      <c r="B18" s="27">
-        <v>18</v>
-      </c>
-      <c r="C18" s="40">
+      <c r="B18" s="24">
+        <v>18</v>
+      </c>
+      <c r="C18" s="37">
         <v>1</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="37">
+      <c r="E18" s="34">
         <v>122.081</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="25">
+      <c r="A19" s="22">
         <v>22</v>
       </c>
-      <c r="B19" s="25">
-        <v>18</v>
-      </c>
-      <c r="C19" s="41">
+      <c r="B19" s="22">
+        <v>18</v>
+      </c>
+      <c r="C19" s="38">
         <v>1</v>
       </c>
-      <c r="D19" s="29" t="s">
+      <c r="D19" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="35">
+      <c r="E19" s="32">
         <v>113.619</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="25">
+      <c r="A20" s="22">
         <v>22</v>
       </c>
-      <c r="B20" s="25">
-        <v>18</v>
-      </c>
-      <c r="C20" s="41">
+      <c r="B20" s="22">
+        <v>18</v>
+      </c>
+      <c r="C20" s="38">
         <v>1</v>
       </c>
-      <c r="D20" s="29" t="s">
+      <c r="D20" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="35">
+      <c r="E20" s="32">
         <v>6.7456800000000001</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="25">
+      <c r="A21" s="22">
         <v>22</v>
       </c>
-      <c r="B21" s="25">
-        <v>18</v>
-      </c>
-      <c r="C21" s="42">
+      <c r="B21" s="22">
+        <v>18</v>
+      </c>
+      <c r="C21" s="39">
         <v>1</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="D21" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="36">
+      <c r="E21" s="33">
         <v>1.71635</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="25">
+      <c r="A22" s="22">
         <v>22</v>
       </c>
-      <c r="B22" s="25">
-        <v>18</v>
-      </c>
-      <c r="C22" s="40">
+      <c r="B22" s="22">
+        <v>18</v>
+      </c>
+      <c r="C22" s="37">
         <v>4</v>
       </c>
-      <c r="D22" s="31" t="s">
+      <c r="D22" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="37">
+      <c r="E22" s="34">
         <v>143.26499999999999</v>
       </c>
-      <c r="I22" s="22"/>
+      <c r="I22" s="19"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="25">
+      <c r="A23" s="22">
         <v>22</v>
       </c>
-      <c r="B23" s="25">
-        <v>18</v>
-      </c>
-      <c r="C23" s="41">
+      <c r="B23" s="22">
+        <v>18</v>
+      </c>
+      <c r="C23" s="38">
         <v>4</v>
       </c>
-      <c r="D23" s="29" t="s">
+      <c r="D23" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="35">
+      <c r="E23" s="32">
         <v>113.863</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="25">
+      <c r="A24" s="22">
         <v>22</v>
       </c>
-      <c r="B24" s="25">
-        <v>18</v>
-      </c>
-      <c r="C24" s="41">
+      <c r="B24" s="22">
+        <v>18</v>
+      </c>
+      <c r="C24" s="38">
         <v>4</v>
       </c>
-      <c r="D24" s="29" t="s">
+      <c r="D24" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="35">
+      <c r="E24" s="32">
         <v>27.173100000000002</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="25">
+      <c r="A25" s="22">
         <v>22</v>
       </c>
-      <c r="B25" s="25">
-        <v>18</v>
-      </c>
-      <c r="C25" s="42">
+      <c r="B25" s="22">
+        <v>18</v>
+      </c>
+      <c r="C25" s="39">
         <v>4</v>
       </c>
-      <c r="D25" s="30" t="s">
+      <c r="D25" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="36">
+      <c r="E25" s="33">
         <v>2.2295400000000001</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="25">
+      <c r="A26" s="22">
         <v>22</v>
       </c>
-      <c r="B26" s="25">
-        <v>18</v>
-      </c>
-      <c r="C26" s="40">
+      <c r="B26" s="22">
+        <v>18</v>
+      </c>
+      <c r="C26" s="37">
         <v>8</v>
       </c>
-      <c r="D26" s="31" t="s">
+      <c r="D26" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="37">
+      <c r="E26" s="34">
         <v>171.86</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="25">
+      <c r="A27" s="22">
         <v>22</v>
       </c>
-      <c r="B27" s="25">
-        <v>18</v>
-      </c>
-      <c r="C27" s="41">
+      <c r="B27" s="22">
+        <v>18</v>
+      </c>
+      <c r="C27" s="38">
         <v>8</v>
       </c>
-      <c r="D27" s="29" t="s">
+      <c r="D27" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="35">
+      <c r="E27" s="32">
         <v>115.291</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="25">
+      <c r="A28" s="22">
         <v>22</v>
       </c>
-      <c r="B28" s="25">
-        <v>18</v>
-      </c>
-      <c r="C28" s="41">
+      <c r="B28" s="22">
+        <v>18</v>
+      </c>
+      <c r="C28" s="38">
         <v>8</v>
       </c>
-      <c r="D28" s="29" t="s">
+      <c r="D28" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E28" s="35">
+      <c r="E28" s="32">
         <v>53.8157</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="25">
+      <c r="A29" s="22">
         <v>22</v>
       </c>
-      <c r="B29" s="25">
-        <v>18</v>
-      </c>
-      <c r="C29" s="42">
+      <c r="B29" s="22">
+        <v>18</v>
+      </c>
+      <c r="C29" s="39">
         <v>8</v>
       </c>
-      <c r="D29" s="30" t="s">
+      <c r="D29" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E29" s="36">
+      <c r="E29" s="33">
         <v>2.7530399999999999</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="25">
+      <c r="A30" s="22">
         <v>22</v>
       </c>
-      <c r="B30" s="25">
-        <v>18</v>
-      </c>
-      <c r="C30" s="40">
+      <c r="B30" s="22">
+        <v>18</v>
+      </c>
+      <c r="C30" s="37">
         <v>12</v>
       </c>
-      <c r="D30" s="31" t="s">
+      <c r="D30" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E30" s="37">
+      <c r="E30" s="34">
         <v>198.703</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="25">
+      <c r="A31" s="22">
         <v>22</v>
       </c>
-      <c r="B31" s="25">
-        <v>18</v>
-      </c>
-      <c r="C31" s="41">
+      <c r="B31" s="22">
+        <v>18</v>
+      </c>
+      <c r="C31" s="38">
         <v>12</v>
       </c>
-      <c r="D31" s="29" t="s">
+      <c r="D31" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="35">
+      <c r="E31" s="32">
         <v>115.417</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="25">
+      <c r="A32" s="22">
         <v>22</v>
       </c>
-      <c r="B32" s="25">
-        <v>18</v>
-      </c>
-      <c r="C32" s="41">
+      <c r="B32" s="22">
+        <v>18</v>
+      </c>
+      <c r="C32" s="38">
         <v>12</v>
       </c>
-      <c r="D32" s="29" t="s">
+      <c r="D32" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E32" s="35">
+      <c r="E32" s="32">
         <v>79.993899999999996</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="25">
+      <c r="A33" s="22">
         <v>22</v>
       </c>
-      <c r="B33" s="25">
-        <v>18</v>
-      </c>
-      <c r="C33" s="42">
+      <c r="B33" s="22">
+        <v>18</v>
+      </c>
+      <c r="C33" s="39">
         <v>12</v>
       </c>
-      <c r="D33" s="30" t="s">
+      <c r="D33" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E33" s="36">
+      <c r="E33" s="33">
         <v>3.2921399999999998</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="25">
+      <c r="A34" s="22">
         <v>22</v>
       </c>
-      <c r="B34" s="25">
-        <v>18</v>
-      </c>
-      <c r="C34" s="40">
+      <c r="B34" s="22">
+        <v>18</v>
+      </c>
+      <c r="C34" s="37">
         <v>16</v>
       </c>
-      <c r="D34" s="31" t="s">
+      <c r="D34" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E34" s="37">
+      <c r="E34" s="34">
         <v>224.191</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="25">
+      <c r="A35" s="22">
         <v>22</v>
       </c>
-      <c r="B35" s="25">
-        <v>18</v>
-      </c>
-      <c r="C35" s="41">
+      <c r="B35" s="22">
+        <v>18</v>
+      </c>
+      <c r="C35" s="38">
         <v>16</v>
       </c>
-      <c r="D35" s="29" t="s">
+      <c r="D35" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E35" s="35">
+      <c r="E35" s="32">
         <v>114.56</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="25">
+      <c r="A36" s="22">
         <v>22</v>
       </c>
-      <c r="B36" s="25">
-        <v>18</v>
-      </c>
-      <c r="C36" s="41">
+      <c r="B36" s="22">
+        <v>18</v>
+      </c>
+      <c r="C36" s="38">
         <v>16</v>
       </c>
-      <c r="D36" s="29" t="s">
+      <c r="D36" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E36" s="35">
+      <c r="E36" s="32">
         <v>105.688</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="26">
+      <c r="A37" s="23">
         <v>22</v>
       </c>
-      <c r="B37" s="26">
-        <v>18</v>
-      </c>
-      <c r="C37" s="42">
+      <c r="B37" s="23">
+        <v>18</v>
+      </c>
+      <c r="C37" s="39">
         <v>16</v>
       </c>
-      <c r="D37" s="30" t="s">
+      <c r="D37" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E37" s="36">
+      <c r="E37" s="33">
         <v>3.9426199999999998</v>
       </c>
     </row>

--- a/fig/HybridSimData.xlsx
+++ b/fig/HybridSimData.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\abuqiqi\Project\CompressData\fig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431E7450-1D06-400B-830E-9025B82DB442}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1581C5D9-4037-4C52-AB79-3FB026D1B5D7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="599" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="599" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IO propt." sheetId="7" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="9" r:id="rId2"/>
+    <sheet name="summary" sheetId="9" r:id="rId2"/>
     <sheet name="MemQubits" sheetId="8" r:id="rId3"/>
     <sheet name="#Qubits" sheetId="1" r:id="rId4"/>
     <sheet name="#Levels" sheetId="3" r:id="rId5"/>
@@ -492,6 +492,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -501,6 +522,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -509,39 +542,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -874,10 +874,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="42">
+      <c r="A2" s="49">
         <v>1</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="40" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="12">
@@ -892,8 +892,8 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="40"/>
-      <c r="B3" s="47" t="s">
+      <c r="A3" s="47"/>
+      <c r="B3" s="41" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="8">
@@ -908,8 +908,8 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="40"/>
-      <c r="B4" s="47" t="s">
+      <c r="A4" s="47"/>
+      <c r="B4" s="41" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="8">
@@ -924,8 +924,8 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="41"/>
-      <c r="B5" s="48" t="s">
+      <c r="A5" s="48"/>
+      <c r="B5" s="42" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="10">
@@ -937,10 +937,10 @@
       <c r="E5" s="14"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="40">
+      <c r="A6" s="47">
         <v>5</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="8">
@@ -956,8 +956,8 @@
       <c r="I6" s="19"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="40"/>
-      <c r="B7" s="47" t="s">
+      <c r="A7" s="47"/>
+      <c r="B7" s="41" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="8">
@@ -972,8 +972,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="40"/>
-      <c r="B8" s="47" t="s">
+      <c r="A8" s="47"/>
+      <c r="B8" s="41" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="8">
@@ -988,8 +988,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="41"/>
-      <c r="B9" s="48" t="s">
+      <c r="A9" s="48"/>
+      <c r="B9" s="42" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="10">
@@ -1024,7 +1024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE10F391-D643-40E9-8CBA-0BC40E0D3325}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -1038,64 +1038,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="53" t="s">
+      <c r="C1" s="51"/>
+      <c r="D1" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="54"/>
+      <c r="E1" s="51"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="51"/>
-      <c r="B2" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="52" t="s">
+      <c r="A2" s="53"/>
+      <c r="B2" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="52" t="s">
+      <c r="D2" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="44" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="56" t="s">
+      <c r="E3" s="46" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="52" t="s">
+      <c r="E4" s="44" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1431,7 +1431,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:B13"/>
+      <selection sqref="A1:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1461,10 +1461,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="43">
-        <v>18</v>
-      </c>
-      <c r="B2" s="46" t="s">
+      <c r="A2" s="54">
+        <v>18</v>
+      </c>
+      <c r="B2" s="40" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="31">
@@ -1479,8 +1479,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="44"/>
-      <c r="B3" s="47" t="s">
+      <c r="A3" s="55"/>
+      <c r="B3" s="41" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="29">
@@ -1495,8 +1495,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="44"/>
-      <c r="B4" s="47" t="s">
+      <c r="A4" s="55"/>
+      <c r="B4" s="41" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="29">
@@ -1511,8 +1511,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="45"/>
-      <c r="B5" s="48" t="s">
+      <c r="A5" s="56"/>
+      <c r="B5" s="42" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="30">
@@ -1524,11 +1524,11 @@
       <c r="E5" s="35"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="43">
+      <c r="A6" s="54">
         <f t="shared" ref="A6" si="1">A2+2</f>
         <v>20</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="31">
@@ -1543,8 +1543,8 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="44"/>
-      <c r="B7" s="47" t="s">
+      <c r="A7" s="55"/>
+      <c r="B7" s="41" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="29">
@@ -1559,8 +1559,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="44"/>
-      <c r="B8" s="47" t="s">
+      <c r="A8" s="55"/>
+      <c r="B8" s="41" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="29">
@@ -1575,8 +1575,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="45"/>
-      <c r="B9" s="48" t="s">
+      <c r="A9" s="56"/>
+      <c r="B9" s="42" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="30">
@@ -1588,11 +1588,11 @@
       <c r="E9" s="35"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="43">
+      <c r="A10" s="54">
         <f t="shared" ref="A10" si="3">A6+2</f>
         <v>22</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="40" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="31">
@@ -1607,8 +1607,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="44"/>
-      <c r="B11" s="47" t="s">
+      <c r="A11" s="55"/>
+      <c r="B11" s="41" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="29">
@@ -1623,8 +1623,8 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="44"/>
-      <c r="B12" s="47" t="s">
+      <c r="A12" s="55"/>
+      <c r="B12" s="41" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="29">
@@ -1639,8 +1639,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="45"/>
-      <c r="B13" s="48" t="s">
+      <c r="A13" s="56"/>
+      <c r="B13" s="42" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="30">
@@ -1669,7 +1669,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection sqref="A1:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1697,10 +1697,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="43">
+      <c r="A2" s="54">
         <v>5</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="40" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="31">
@@ -1715,8 +1715,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="44"/>
-      <c r="B3" s="47" t="s">
+      <c r="A3" s="55"/>
+      <c r="B3" s="41" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="29">
@@ -1731,8 +1731,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="44"/>
-      <c r="B4" s="47" t="s">
+      <c r="A4" s="55"/>
+      <c r="B4" s="41" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="29">
@@ -1747,8 +1747,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="45"/>
-      <c r="B5" s="48" t="s">
+      <c r="A5" s="56"/>
+      <c r="B5" s="42" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="30">
@@ -1760,10 +1760,10 @@
       <c r="E5" s="35"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="43">
+      <c r="A6" s="54">
         <v>10</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="31">
@@ -1778,8 +1778,8 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="44"/>
-      <c r="B7" s="47" t="s">
+      <c r="A7" s="55"/>
+      <c r="B7" s="41" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="29">
@@ -1794,8 +1794,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="44"/>
-      <c r="B8" s="47" t="s">
+      <c r="A8" s="55"/>
+      <c r="B8" s="41" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="29">
@@ -1810,8 +1810,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="45"/>
-      <c r="B9" s="48" t="s">
+      <c r="A9" s="56"/>
+      <c r="B9" s="42" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="30">
@@ -1823,10 +1823,10 @@
       <c r="E9" s="35"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="43">
+      <c r="A10" s="54">
         <v>15</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="40" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="31">
@@ -1841,8 +1841,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="44"/>
-      <c r="B11" s="47" t="s">
+      <c r="A11" s="55"/>
+      <c r="B11" s="41" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="29">
@@ -1857,8 +1857,8 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="44"/>
-      <c r="B12" s="47" t="s">
+      <c r="A12" s="55"/>
+      <c r="B12" s="41" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="29">
@@ -1873,8 +1873,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="45"/>
-      <c r="B13" s="48" t="s">
+      <c r="A13" s="56"/>
+      <c r="B13" s="42" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="30">
@@ -1901,8 +1901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1913,7 +1913,7 @@
     <col min="5" max="5" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>13</v>
       </c>
@@ -1930,7 +1930,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="24">
         <v>20</v>
       </c>
@@ -1944,10 +1944,13 @@
         <v>4</v>
       </c>
       <c r="E2" s="34">
+        <v>24.851299999999998</v>
+      </c>
+      <c r="G2" s="34">
         <v>34.705599999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="22">
         <v>20</v>
       </c>
@@ -1961,10 +1964,13 @@
         <v>5</v>
       </c>
       <c r="E3" s="32">
+        <v>24.587</v>
+      </c>
+      <c r="G3" s="32">
         <v>27.665800000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="22">
         <v>20</v>
       </c>
@@ -1978,10 +1984,13 @@
         <v>6</v>
       </c>
       <c r="E4" s="32">
+        <v>0</v>
+      </c>
+      <c r="G4" s="32">
         <v>6.7174800000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="22">
         <v>20</v>
       </c>
@@ -1995,10 +2004,13 @@
         <v>7</v>
       </c>
       <c r="E5" s="33">
+        <v>0.26430300000000001</v>
+      </c>
+      <c r="G5" s="33">
         <v>0.32237300000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="22">
         <v>20</v>
       </c>
@@ -2012,10 +2024,13 @@
         <v>4</v>
       </c>
       <c r="E6" s="34">
+        <v>40.197099999999999</v>
+      </c>
+      <c r="G6" s="34">
         <v>41.4482</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="22">
         <v>20</v>
       </c>
@@ -2029,10 +2044,13 @@
         <v>5</v>
       </c>
       <c r="E7" s="32">
+        <v>26.4071</v>
+      </c>
+      <c r="G7" s="32">
         <v>27.582699999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="22">
         <v>20</v>
       </c>
@@ -2046,10 +2064,13 @@
         <v>6</v>
       </c>
       <c r="E8" s="32">
+        <v>13.334199999999999</v>
+      </c>
+      <c r="G8" s="32">
         <v>13.3645</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="22">
         <v>20</v>
       </c>
@@ -2063,10 +2084,13 @@
         <v>7</v>
       </c>
       <c r="E9" s="33">
+        <v>0.45575199999999999</v>
+      </c>
+      <c r="G9" s="33">
         <v>0.50102899999999995</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="22">
         <v>20</v>
       </c>
@@ -2080,10 +2104,13 @@
         <v>4</v>
       </c>
       <c r="E10" s="34">
+        <v>47.3782</v>
+      </c>
+      <c r="G10" s="34">
         <v>48.0961</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
         <v>20</v>
       </c>
@@ -2097,10 +2124,13 @@
         <v>5</v>
       </c>
       <c r="E11" s="32">
+        <v>26.9099</v>
+      </c>
+      <c r="G11" s="32">
         <v>27.599699999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="22">
         <v>20</v>
       </c>
@@ -2114,10 +2144,13 @@
         <v>6</v>
       </c>
       <c r="E12" s="32">
+        <v>19.8568</v>
+      </c>
+      <c r="G12" s="32">
         <v>19.901199999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="22">
         <v>20</v>
       </c>
@@ -2131,10 +2164,13 @@
         <v>7</v>
       </c>
       <c r="E13" s="33">
+        <v>0.61150700000000002</v>
+      </c>
+      <c r="G13" s="33">
         <v>0.59528400000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="22">
         <v>20</v>
       </c>
@@ -2148,10 +2184,13 @@
         <v>4</v>
       </c>
       <c r="E14" s="34">
+        <v>54.841799999999999</v>
+      </c>
+      <c r="G14" s="34">
         <v>54.608499999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="22">
         <v>20</v>
       </c>
@@ -2165,10 +2204,13 @@
         <v>5</v>
       </c>
       <c r="E15" s="32">
+        <v>27.556100000000001</v>
+      </c>
+      <c r="G15" s="32">
         <v>27.4331</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="22">
         <v>20</v>
       </c>
@@ -2182,6 +2224,9 @@
         <v>6</v>
       </c>
       <c r="E16" s="32">
+        <v>26.534099999999999</v>
+      </c>
+      <c r="G16" s="32">
         <v>26.438099999999999</v>
       </c>
     </row>
@@ -2199,6 +2244,9 @@
         <v>7</v>
       </c>
       <c r="E17" s="33">
+        <v>0.75159600000000004</v>
+      </c>
+      <c r="G17" s="33">
         <v>0.73732299999999995</v>
       </c>
     </row>
@@ -2216,6 +2264,9 @@
         <v>4</v>
       </c>
       <c r="E18" s="34">
+        <v>104.396</v>
+      </c>
+      <c r="G18" s="34">
         <v>122.081</v>
       </c>
     </row>
@@ -2233,6 +2284,9 @@
         <v>5</v>
       </c>
       <c r="E19" s="32">
+        <v>103.758</v>
+      </c>
+      <c r="G19" s="32">
         <v>113.619</v>
       </c>
     </row>
@@ -2250,6 +2304,9 @@
         <v>6</v>
       </c>
       <c r="E20" s="32">
+        <v>0</v>
+      </c>
+      <c r="G20" s="32">
         <v>6.7456800000000001</v>
       </c>
     </row>
@@ -2267,6 +2324,9 @@
         <v>7</v>
       </c>
       <c r="E21" s="33">
+        <v>0.63803500000000002</v>
+      </c>
+      <c r="G21" s="33">
         <v>1.71635</v>
       </c>
     </row>
@@ -2284,6 +2344,9 @@
         <v>4</v>
       </c>
       <c r="E22" s="34">
+        <v>137.636</v>
+      </c>
+      <c r="G22" s="34">
         <v>143.26499999999999</v>
       </c>
       <c r="I22" s="19"/>
@@ -2302,6 +2365,9 @@
         <v>5</v>
       </c>
       <c r="E23" s="32">
+        <v>108.649</v>
+      </c>
+      <c r="G23" s="32">
         <v>113.863</v>
       </c>
     </row>
@@ -2319,6 +2385,9 @@
         <v>6</v>
       </c>
       <c r="E24" s="32">
+        <v>26.6572</v>
+      </c>
+      <c r="G24" s="32">
         <v>27.173100000000002</v>
       </c>
     </row>
@@ -2336,6 +2405,9 @@
         <v>7</v>
       </c>
       <c r="E25" s="33">
+        <v>2.3293300000000001</v>
+      </c>
+      <c r="G25" s="33">
         <v>2.2295400000000001</v>
       </c>
     </row>
@@ -2353,6 +2425,9 @@
         <v>4</v>
       </c>
       <c r="E26" s="34">
+        <v>162.66499999999999</v>
+      </c>
+      <c r="G26" s="34">
         <v>171.86</v>
       </c>
     </row>
@@ -2370,6 +2445,9 @@
         <v>5</v>
       </c>
       <c r="E27" s="32">
+        <v>107.086</v>
+      </c>
+      <c r="G27" s="32">
         <v>115.291</v>
       </c>
     </row>
@@ -2387,6 +2465,9 @@
         <v>6</v>
       </c>
       <c r="E28" s="32">
+        <v>52.911099999999998</v>
+      </c>
+      <c r="G28" s="32">
         <v>53.8157</v>
       </c>
     </row>
@@ -2404,6 +2485,9 @@
         <v>7</v>
       </c>
       <c r="E29" s="33">
+        <v>2.66764</v>
+      </c>
+      <c r="G29" s="33">
         <v>2.7530399999999999</v>
       </c>
     </row>
@@ -2421,6 +2505,9 @@
         <v>4</v>
       </c>
       <c r="E30" s="34">
+        <v>191.41</v>
+      </c>
+      <c r="G30" s="34">
         <v>198.703</v>
       </c>
     </row>
@@ -2438,6 +2525,9 @@
         <v>5</v>
       </c>
       <c r="E31" s="32">
+        <v>109.402</v>
+      </c>
+      <c r="G31" s="32">
         <v>115.417</v>
       </c>
     </row>
@@ -2455,10 +2545,13 @@
         <v>6</v>
       </c>
       <c r="E32" s="32">
+        <v>78.845100000000002</v>
+      </c>
+      <c r="G32" s="32">
         <v>79.993899999999996</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="22">
         <v>22</v>
       </c>
@@ -2472,10 +2565,13 @@
         <v>7</v>
       </c>
       <c r="E33" s="33">
+        <v>3.1629299999999998</v>
+      </c>
+      <c r="G33" s="33">
         <v>3.2921399999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="22">
         <v>22</v>
       </c>
@@ -2489,10 +2585,13 @@
         <v>4</v>
       </c>
       <c r="E34" s="34">
+        <v>221.24799999999999</v>
+      </c>
+      <c r="G34" s="34">
         <v>224.191</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="22">
         <v>22</v>
       </c>
@@ -2506,10 +2605,13 @@
         <v>5</v>
       </c>
       <c r="E35" s="32">
+        <v>112.101</v>
+      </c>
+      <c r="G35" s="32">
         <v>114.56</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="22">
         <v>22</v>
       </c>
@@ -2523,10 +2625,13 @@
         <v>6</v>
       </c>
       <c r="E36" s="32">
+        <v>105.348</v>
+      </c>
+      <c r="G36" s="32">
         <v>105.688</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="23">
         <v>22</v>
       </c>
@@ -2540,6 +2645,9 @@
         <v>7</v>
       </c>
       <c r="E37" s="33">
+        <v>3.7989999999999999</v>
+      </c>
+      <c r="G37" s="33">
         <v>3.9426199999999998</v>
       </c>
     </row>
@@ -2547,7 +2655,7 @@
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/fig/HybridSimData.xlsx
+++ b/fig/HybridSimData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\abuqiqi\Project\CompressData\fig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1581C5D9-4037-4C52-AB79-3FB026D1B5D7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88BB801-E7C9-48DA-A1E7-F111D35B4C6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="599" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="31">
   <si>
     <t>Metrics</t>
   </si>
@@ -132,6 +132,14 @@
   </si>
   <si>
     <t>$T \times cost(svIO)$</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Imprv.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlockSim</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -375,7 +383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -541,6 +549,45 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1669,7 +1716,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection sqref="A1:E13"/>
+      <selection activeCell="C2" sqref="C2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1902,7 +1949,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1911,6 +1958,8 @@
     <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="4" width="12.625" customWidth="1"/>
     <col min="5" max="5" width="10.625" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="7" max="7" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -1929,6 +1978,12 @@
       <c r="E1" s="25" t="s">
         <v>2</v>
       </c>
+      <c r="F1" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="57" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="24">
@@ -1943,11 +1998,15 @@
       <c r="D2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="34">
+      <c r="E2" s="63">
         <v>24.851299999999998</v>
       </c>
-      <c r="G2" s="34">
-        <v>34.705599999999997</v>
+      <c r="F2" s="58">
+        <f>$G$2/E2</f>
+        <v>25.868264436870508</v>
+      </c>
+      <c r="G2" s="66">
+        <v>642.86</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1963,11 +2022,15 @@
       <c r="D3" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="32">
+      <c r="E3" s="64">
         <v>24.587</v>
       </c>
-      <c r="G3" s="32">
-        <v>27.665800000000001</v>
+      <c r="F3" s="59">
+        <f>$G$3/E3</f>
+        <v>20.469435067311995</v>
+      </c>
+      <c r="G3" s="67">
+        <v>503.28199999999998</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1983,11 +2046,15 @@
       <c r="D4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="32">
+      <c r="E4" s="64">
         <v>0</v>
       </c>
-      <c r="G4" s="32">
-        <v>6.7174800000000001</v>
+      <c r="F4" s="59" t="e">
+        <f>$G$4/E4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G4" s="67">
+        <v>138.93</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2003,11 +2070,15 @@
       <c r="D5" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="65">
         <v>0.26430300000000001</v>
       </c>
-      <c r="G5" s="33">
-        <v>0.32237300000000002</v>
+      <c r="F5" s="35">
+        <f>$G$5/E5</f>
+        <v>2.4531390109079347</v>
+      </c>
+      <c r="G5" s="68">
+        <v>0.64837199999999995</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2026,9 +2097,11 @@
       <c r="E6" s="34">
         <v>40.197099999999999</v>
       </c>
-      <c r="G6" s="34">
-        <v>41.4482</v>
-      </c>
+      <c r="F6" s="58">
+        <f t="shared" ref="F6" si="0">$G$2/E6</f>
+        <v>15.992695990506778</v>
+      </c>
+      <c r="G6" s="29"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="22">
@@ -2046,9 +2119,11 @@
       <c r="E7" s="32">
         <v>26.4071</v>
       </c>
-      <c r="G7" s="32">
-        <v>27.582699999999999</v>
-      </c>
+      <c r="F7" s="59">
+        <f t="shared" ref="F7" si="1">$G$3/E7</f>
+        <v>19.058586516505031</v>
+      </c>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="22">
@@ -2066,9 +2141,11 @@
       <c r="E8" s="32">
         <v>13.334199999999999</v>
       </c>
-      <c r="G8" s="32">
-        <v>13.3645</v>
-      </c>
+      <c r="F8" s="59">
+        <f t="shared" ref="F8" si="2">$G$4/E8</f>
+        <v>10.419072760270584</v>
+      </c>
+      <c r="G8" s="29"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="22">
@@ -2086,9 +2163,11 @@
       <c r="E9" s="33">
         <v>0.45575199999999999</v>
       </c>
-      <c r="G9" s="33">
-        <v>0.50102899999999995</v>
-      </c>
+      <c r="F9" s="35">
+        <f t="shared" ref="F9" si="3">$G$5/E9</f>
+        <v>1.4226421387070161</v>
+      </c>
+      <c r="G9" s="29"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="22">
@@ -2106,9 +2185,11 @@
       <c r="E10" s="34">
         <v>47.3782</v>
       </c>
-      <c r="G10" s="34">
-        <v>48.0961</v>
-      </c>
+      <c r="F10" s="58">
+        <f t="shared" ref="F10" si="4">$G$2/E10</f>
+        <v>13.568687708693028</v>
+      </c>
+      <c r="G10" s="29"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
@@ -2126,9 +2207,11 @@
       <c r="E11" s="32">
         <v>26.9099</v>
       </c>
-      <c r="G11" s="32">
-        <v>27.599699999999999</v>
-      </c>
+      <c r="F11" s="59">
+        <f t="shared" ref="F11" si="5">$G$3/E11</f>
+        <v>18.702484959067107</v>
+      </c>
+      <c r="G11" s="29"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="22">
@@ -2146,9 +2229,11 @@
       <c r="E12" s="32">
         <v>19.8568</v>
       </c>
-      <c r="G12" s="32">
-        <v>19.901199999999999</v>
-      </c>
+      <c r="F12" s="59">
+        <f t="shared" ref="F12" si="6">$G$4/E12</f>
+        <v>6.9965956246726568</v>
+      </c>
+      <c r="G12" s="29"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="22">
@@ -2166,9 +2251,11 @@
       <c r="E13" s="33">
         <v>0.61150700000000002</v>
       </c>
-      <c r="G13" s="33">
-        <v>0.59528400000000004</v>
-      </c>
+      <c r="F13" s="35">
+        <f t="shared" ref="F13" si="7">$G$5/E13</f>
+        <v>1.0602854914171056</v>
+      </c>
+      <c r="G13" s="29"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="22">
@@ -2186,9 +2273,11 @@
       <c r="E14" s="34">
         <v>54.841799999999999</v>
       </c>
-      <c r="G14" s="34">
-        <v>54.608499999999999</v>
-      </c>
+      <c r="F14" s="58">
+        <f t="shared" ref="F14" si="8">$G$2/E14</f>
+        <v>11.722080602751916</v>
+      </c>
+      <c r="G14" s="29"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="22">
@@ -2206,9 +2295,11 @@
       <c r="E15" s="32">
         <v>27.556100000000001</v>
       </c>
-      <c r="G15" s="32">
-        <v>27.4331</v>
-      </c>
+      <c r="F15" s="59">
+        <f t="shared" ref="F15" si="9">$G$3/E15</f>
+        <v>18.263905269613623</v>
+      </c>
+      <c r="G15" s="29"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="22">
@@ -2226,9 +2317,11 @@
       <c r="E16" s="32">
         <v>26.534099999999999</v>
       </c>
-      <c r="G16" s="32">
-        <v>26.438099999999999</v>
-      </c>
+      <c r="F16" s="59">
+        <f t="shared" ref="F16" si="10">$G$4/E16</f>
+        <v>5.2359039876988485</v>
+      </c>
+      <c r="G16" s="29"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="23">
@@ -2246,9 +2339,11 @@
       <c r="E17" s="33">
         <v>0.75159600000000004</v>
       </c>
-      <c r="G17" s="33">
-        <v>0.73732299999999995</v>
-      </c>
+      <c r="F17" s="35">
+        <f t="shared" ref="F17" si="11">$G$5/E17</f>
+        <v>0.86266025896891407</v>
+      </c>
+      <c r="G17" s="29"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="24">
@@ -2266,8 +2361,12 @@
       <c r="E18" s="34">
         <v>104.396</v>
       </c>
-      <c r="G18" s="34">
-        <v>122.081</v>
+      <c r="F18" s="60">
+        <f>$G$18/E18</f>
+        <v>33.929939844438486</v>
+      </c>
+      <c r="G18" s="29">
+        <v>3542.15</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -2286,8 +2385,12 @@
       <c r="E19" s="32">
         <v>103.758</v>
       </c>
-      <c r="G19" s="32">
-        <v>113.619</v>
+      <c r="F19" s="61">
+        <f>$G$19/E19</f>
+        <v>28.756144104550973</v>
+      </c>
+      <c r="G19" s="29">
+        <v>2983.68</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -2306,8 +2409,12 @@
       <c r="E20" s="32">
         <v>0</v>
       </c>
-      <c r="G20" s="32">
-        <v>6.7456800000000001</v>
+      <c r="F20" s="61" t="e">
+        <f>$G$20/E20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G20" s="29">
+        <v>555.54300000000001</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -2326,8 +2433,12 @@
       <c r="E21" s="33">
         <v>0.63803500000000002</v>
       </c>
-      <c r="G21" s="33">
-        <v>1.71635</v>
+      <c r="F21" s="62">
+        <f>$G$21/E21</f>
+        <v>4.587632339918656</v>
+      </c>
+      <c r="G21" s="29">
+        <v>2.9270700000000001</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -2346,9 +2457,11 @@
       <c r="E22" s="34">
         <v>137.636</v>
       </c>
-      <c r="G22" s="34">
-        <v>143.26499999999999</v>
-      </c>
+      <c r="F22" s="60">
+        <f>$G$18/E22</f>
+        <v>25.735636025458458</v>
+      </c>
+      <c r="G22" s="29"/>
       <c r="I22" s="19"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -2367,9 +2480,11 @@
       <c r="E23" s="32">
         <v>108.649</v>
       </c>
-      <c r="G23" s="32">
-        <v>113.863</v>
-      </c>
+      <c r="F23" s="61">
+        <f>$G$19/E23</f>
+        <v>27.461642536976868</v>
+      </c>
+      <c r="G23" s="29"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="22">
@@ -2387,9 +2502,11 @@
       <c r="E24" s="32">
         <v>26.6572</v>
       </c>
-      <c r="G24" s="32">
-        <v>27.173100000000002</v>
-      </c>
+      <c r="F24" s="61">
+        <f>$G$20/E24</f>
+        <v>20.840260792581368</v>
+      </c>
+      <c r="G24" s="29"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="22">
@@ -2407,9 +2524,11 @@
       <c r="E25" s="33">
         <v>2.3293300000000001</v>
       </c>
-      <c r="G25" s="33">
-        <v>2.2295400000000001</v>
-      </c>
+      <c r="F25" s="62">
+        <f>$G$21/E25</f>
+        <v>1.2566145629859229</v>
+      </c>
+      <c r="G25" s="29"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="22">
@@ -2427,9 +2546,11 @@
       <c r="E26" s="34">
         <v>162.66499999999999</v>
       </c>
-      <c r="G26" s="34">
-        <v>171.86</v>
-      </c>
+      <c r="F26" s="60">
+        <f t="shared" ref="F26" si="12">$G$18/E26</f>
+        <v>21.775735407125076</v>
+      </c>
+      <c r="G26" s="29"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="22">
@@ -2447,9 +2568,11 @@
       <c r="E27" s="32">
         <v>107.086</v>
       </c>
-      <c r="G27" s="32">
-        <v>115.291</v>
-      </c>
+      <c r="F27" s="61">
+        <f t="shared" ref="F27" si="13">$G$19/E27</f>
+        <v>27.862465681788468</v>
+      </c>
+      <c r="G27" s="29"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="22">
@@ -2467,9 +2590,11 @@
       <c r="E28" s="32">
         <v>52.911099999999998</v>
       </c>
-      <c r="G28" s="32">
-        <v>53.8157</v>
-      </c>
+      <c r="F28" s="61">
+        <f t="shared" ref="F28" si="14">$G$20/E28</f>
+        <v>10.499554913808256</v>
+      </c>
+      <c r="G28" s="29"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="22">
@@ -2487,9 +2612,11 @@
       <c r="E29" s="33">
         <v>2.66764</v>
       </c>
-      <c r="G29" s="33">
-        <v>2.7530399999999999</v>
-      </c>
+      <c r="F29" s="62">
+        <f t="shared" ref="F29" si="15">$G$21/E29</f>
+        <v>1.0972507534749816</v>
+      </c>
+      <c r="G29" s="29"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="22">
@@ -2507,9 +2634,11 @@
       <c r="E30" s="34">
         <v>191.41</v>
       </c>
-      <c r="G30" s="34">
-        <v>198.703</v>
-      </c>
+      <c r="F30" s="60">
+        <f>$G$18/E30</f>
+        <v>18.505563972624209</v>
+      </c>
+      <c r="G30" s="29"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="22">
@@ -2527,9 +2656,11 @@
       <c r="E31" s="32">
         <v>109.402</v>
       </c>
-      <c r="G31" s="32">
-        <v>115.417</v>
-      </c>
+      <c r="F31" s="61">
+        <f t="shared" ref="F31" si="16">$G$19/E31</f>
+        <v>27.272627557083048</v>
+      </c>
+      <c r="G31" s="29"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="22">
@@ -2547,9 +2678,11 @@
       <c r="E32" s="32">
         <v>78.845100000000002</v>
       </c>
-      <c r="G32" s="32">
-        <v>79.993899999999996</v>
-      </c>
+      <c r="F32" s="61">
+        <f t="shared" ref="F32" si="17">$G$20/E32</f>
+        <v>7.0460053953891872</v>
+      </c>
+      <c r="G32" s="29"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="22">
@@ -2567,9 +2700,11 @@
       <c r="E33" s="33">
         <v>3.1629299999999998</v>
       </c>
-      <c r="G33" s="33">
-        <v>3.2921399999999998</v>
-      </c>
+      <c r="F33" s="62">
+        <f t="shared" ref="F33" si="18">$G$21/E33</f>
+        <v>0.92542990202122721</v>
+      </c>
+      <c r="G33" s="29"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="22">
@@ -2587,9 +2722,11 @@
       <c r="E34" s="34">
         <v>221.24799999999999</v>
       </c>
-      <c r="G34" s="34">
-        <v>224.191</v>
-      </c>
+      <c r="F34" s="60">
+        <f t="shared" ref="F34" si="19">$G$18/E34</f>
+        <v>16.009862236042814</v>
+      </c>
+      <c r="G34" s="29"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="22">
@@ -2607,9 +2744,11 @@
       <c r="E35" s="32">
         <v>112.101</v>
       </c>
-      <c r="G35" s="32">
-        <v>114.56</v>
-      </c>
+      <c r="F35" s="61">
+        <f t="shared" ref="F35" si="20">$G$19/E35</f>
+        <v>26.615998073166161</v>
+      </c>
+      <c r="G35" s="29"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="22">
@@ -2627,9 +2766,11 @@
       <c r="E36" s="32">
         <v>105.348</v>
       </c>
-      <c r="G36" s="32">
-        <v>105.688</v>
-      </c>
+      <c r="F36" s="61">
+        <f t="shared" ref="F36" si="21">$G$20/E36</f>
+        <v>5.2734081330447662</v>
+      </c>
+      <c r="G36" s="29"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="23">
@@ -2647,9 +2788,11 @@
       <c r="E37" s="33">
         <v>3.7989999999999999</v>
       </c>
-      <c r="G37" s="33">
-        <v>3.9426199999999998</v>
-      </c>
+      <c r="F37" s="62">
+        <f t="shared" ref="F37" si="22">$G$21/E37</f>
+        <v>0.77048433798367999</v>
+      </c>
+      <c r="G37" s="29"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
@@ -2660,6 +2803,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="7"/>
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="5"/>
+  <pixelatorList sheetStid="6"/>
+</pixelators>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <woSheetsProps>
     <woSheetProps sheetStid="7" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0" isDbDashBoardSheet="0" isFlexPaperSheet="0">
@@ -2689,19 +2843,8 @@
 </woProps>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="7"/>
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="3"/>
-  <pixelatorList sheetStid="5"/>
-  <pixelatorList sheetStid="6"/>
-</pixelators>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -2710,7 +2853,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>

--- a/fig/HybridSimData.xlsx
+++ b/fig/HybridSimData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\abuqiqi\Project\CompressData\fig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88BB801-E7C9-48DA-A1E7-F111D35B4C6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85629E7E-D109-4F6D-BE0C-6827F6CA8686}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="599" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IO propt." sheetId="7" r:id="rId1"/>
@@ -521,6 +521,45 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -549,45 +588,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -889,8 +889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection sqref="A1:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -921,129 +921,129 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="49">
+      <c r="A2" s="62">
         <v>1</v>
       </c>
       <c r="B2" s="40" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="12">
-        <v>8.9325100000000006</v>
+        <v>7.0252600000000003</v>
       </c>
       <c r="D2" s="13">
-        <v>3.9050400000000001</v>
+        <v>2.8139099999999999</v>
       </c>
       <c r="E2" s="15">
         <f>C2/D2</f>
-        <v>2.2874311146620778</v>
+        <v>2.4966185841053909</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="47"/>
+      <c r="A3" s="60"/>
       <c r="B3" s="41" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="8">
-        <v>7.0778600000000003</v>
+        <v>5.2519499999999999</v>
       </c>
       <c r="D3" s="9">
-        <v>2.1269800000000001</v>
+        <v>1.43923</v>
       </c>
       <c r="E3" s="16">
-        <f t="shared" ref="E3:E4" si="0">C3/D3</f>
-        <v>3.3276570536629397</v>
+        <f>C3/D3</f>
+        <v>3.6491387755952833</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="47"/>
+      <c r="A4" s="60"/>
       <c r="B4" s="41" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="8">
-        <v>1.84548</v>
+        <v>1.76119</v>
       </c>
       <c r="D4" s="9">
-        <v>1.75318</v>
+        <v>1.3469500000000001</v>
       </c>
       <c r="E4" s="16">
-        <f t="shared" si="0"/>
-        <v>1.0526471896781848</v>
+        <f t="shared" ref="E3:E4" si="0">C4/D4</f>
+        <v>1.3075392553546901</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="48"/>
+      <c r="A5" s="61"/>
       <c r="B5" s="42" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="10">
-        <v>9.1750000000000009E-3</v>
+        <v>1.2119E-2</v>
       </c>
       <c r="D5" s="11">
-        <v>2.4885999999999998E-2</v>
+        <v>2.7729E-2</v>
       </c>
       <c r="E5" s="14"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="47">
+      <c r="A6" s="60">
         <v>5</v>
       </c>
       <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="8">
-        <v>44.390900000000002</v>
+        <v>31.938099999999999</v>
       </c>
       <c r="D6" s="9">
-        <v>3.6844000000000001</v>
+        <v>2.5876899999999998</v>
       </c>
       <c r="E6" s="18">
         <f>C6/D6</f>
-        <v>12.048338942568668</v>
+        <v>12.342320757123149</v>
       </c>
       <c r="I6" s="19"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="47"/>
+      <c r="A7" s="60"/>
       <c r="B7" s="41" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="8">
-        <v>34.303899999999999</v>
+        <v>25.288499999999999</v>
       </c>
       <c r="D7" s="9">
-        <v>1.86747</v>
+        <v>1.33497</v>
       </c>
       <c r="E7" s="17">
         <f t="shared" ref="E7:E8" si="1">C7/D7</f>
-        <v>18.369183976181677</v>
+        <v>18.943122317355446</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="47"/>
+      <c r="A8" s="60"/>
       <c r="B8" s="41" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="8">
-        <v>10.031499999999999</v>
+        <v>6.5963500000000002</v>
       </c>
       <c r="D8" s="9">
-        <v>1.7751999999999999</v>
+        <v>1.20696</v>
       </c>
       <c r="E8" s="16">
         <f t="shared" si="1"/>
-        <v>5.6509125732311851</v>
+        <v>5.4652598263405583</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="48"/>
+      <c r="A9" s="61"/>
       <c r="B9" s="42" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="10">
-        <v>5.5441999999999998E-2</v>
+        <v>5.3240999999999997E-2</v>
       </c>
       <c r="D9" s="11">
-        <v>4.1741E-2</v>
+        <v>4.5759000000000001E-2</v>
       </c>
       <c r="E9" s="14"/>
     </row>
@@ -1085,20 +1085,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="50" t="s">
+      <c r="C1" s="64"/>
+      <c r="D1" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="51"/>
+      <c r="E1" s="64"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="53"/>
+      <c r="A2" s="66"/>
       <c r="B2" s="45" t="s">
         <v>18</v>
       </c>
@@ -1508,7 +1508,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="54">
+      <c r="A2" s="67">
         <v>18</v>
       </c>
       <c r="B2" s="40" t="s">
@@ -1526,7 +1526,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="55"/>
+      <c r="A3" s="68"/>
       <c r="B3" s="41" t="s">
         <v>15</v>
       </c>
@@ -1542,7 +1542,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="55"/>
+      <c r="A4" s="68"/>
       <c r="B4" s="41" t="s">
         <v>16</v>
       </c>
@@ -1558,7 +1558,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="56"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="42" t="s">
         <v>17</v>
       </c>
@@ -1571,7 +1571,7 @@
       <c r="E5" s="35"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="54">
+      <c r="A6" s="67">
         <f t="shared" ref="A6" si="1">A2+2</f>
         <v>20</v>
       </c>
@@ -1590,7 +1590,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="55"/>
+      <c r="A7" s="68"/>
       <c r="B7" s="41" t="s">
         <v>15</v>
       </c>
@@ -1606,7 +1606,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="55"/>
+      <c r="A8" s="68"/>
       <c r="B8" s="41" t="s">
         <v>16</v>
       </c>
@@ -1622,7 +1622,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="56"/>
+      <c r="A9" s="69"/>
       <c r="B9" s="42" t="s">
         <v>17</v>
       </c>
@@ -1635,7 +1635,7 @@
       <c r="E9" s="35"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="54">
+      <c r="A10" s="67">
         <f t="shared" ref="A10" si="3">A6+2</f>
         <v>22</v>
       </c>
@@ -1654,7 +1654,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="55"/>
+      <c r="A11" s="68"/>
       <c r="B11" s="41" t="s">
         <v>15</v>
       </c>
@@ -1670,7 +1670,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="55"/>
+      <c r="A12" s="68"/>
       <c r="B12" s="41" t="s">
         <v>16</v>
       </c>
@@ -1686,7 +1686,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="56"/>
+      <c r="A13" s="69"/>
       <c r="B13" s="42" t="s">
         <v>17</v>
       </c>
@@ -1744,7 +1744,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="54">
+      <c r="A2" s="67">
         <v>5</v>
       </c>
       <c r="B2" s="40" t="s">
@@ -1762,7 +1762,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="55"/>
+      <c r="A3" s="68"/>
       <c r="B3" s="41" t="s">
         <v>15</v>
       </c>
@@ -1778,7 +1778,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="55"/>
+      <c r="A4" s="68"/>
       <c r="B4" s="41" t="s">
         <v>16</v>
       </c>
@@ -1794,7 +1794,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="56"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="42" t="s">
         <v>17</v>
       </c>
@@ -1807,7 +1807,7 @@
       <c r="E5" s="35"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="54">
+      <c r="A6" s="67">
         <v>10</v>
       </c>
       <c r="B6" s="40" t="s">
@@ -1825,7 +1825,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="55"/>
+      <c r="A7" s="68"/>
       <c r="B7" s="41" t="s">
         <v>15</v>
       </c>
@@ -1841,7 +1841,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="55"/>
+      <c r="A8" s="68"/>
       <c r="B8" s="41" t="s">
         <v>16</v>
       </c>
@@ -1857,7 +1857,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="56"/>
+      <c r="A9" s="69"/>
       <c r="B9" s="42" t="s">
         <v>17</v>
       </c>
@@ -1870,7 +1870,7 @@
       <c r="E9" s="35"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="54">
+      <c r="A10" s="67">
         <v>15</v>
       </c>
       <c r="B10" s="40" t="s">
@@ -1888,7 +1888,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="55"/>
+      <c r="A11" s="68"/>
       <c r="B11" s="41" t="s">
         <v>15</v>
       </c>
@@ -1904,7 +1904,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="55"/>
+      <c r="A12" s="68"/>
       <c r="B12" s="41" t="s">
         <v>16</v>
       </c>
@@ -1920,7 +1920,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="56"/>
+      <c r="A13" s="69"/>
       <c r="B13" s="42" t="s">
         <v>17</v>
       </c>
@@ -1948,7 +1948,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
@@ -1978,10 +1978,10 @@
       <c r="E1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="69" t="s">
+      <c r="F1" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="G1" s="47" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1998,14 +1998,14 @@
       <c r="D2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="63">
+      <c r="E2" s="53">
         <v>24.851299999999998</v>
       </c>
-      <c r="F2" s="58">
+      <c r="F2" s="48">
         <f>$G$2/E2</f>
         <v>25.868264436870508</v>
       </c>
-      <c r="G2" s="66">
+      <c r="G2" s="56">
         <v>642.86</v>
       </c>
     </row>
@@ -2022,14 +2022,14 @@
       <c r="D3" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="64">
+      <c r="E3" s="54">
         <v>24.587</v>
       </c>
-      <c r="F3" s="59">
+      <c r="F3" s="49">
         <f>$G$3/E3</f>
         <v>20.469435067311995</v>
       </c>
-      <c r="G3" s="67">
+      <c r="G3" s="57">
         <v>503.28199999999998</v>
       </c>
     </row>
@@ -2046,14 +2046,14 @@
       <c r="D4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="64">
+      <c r="E4" s="54">
         <v>0</v>
       </c>
-      <c r="F4" s="59" t="e">
+      <c r="F4" s="49" t="e">
         <f>$G$4/E4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G4" s="67">
+      <c r="G4" s="57">
         <v>138.93</v>
       </c>
     </row>
@@ -2070,14 +2070,14 @@
       <c r="D5" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="65">
+      <c r="E5" s="55">
         <v>0.26430300000000001</v>
       </c>
       <c r="F5" s="35">
         <f>$G$5/E5</f>
         <v>2.4531390109079347</v>
       </c>
-      <c r="G5" s="68">
+      <c r="G5" s="58">
         <v>0.64837199999999995</v>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       <c r="E6" s="34">
         <v>40.197099999999999</v>
       </c>
-      <c r="F6" s="58">
+      <c r="F6" s="48">
         <f t="shared" ref="F6" si="0">$G$2/E6</f>
         <v>15.992695990506778</v>
       </c>
@@ -2119,7 +2119,7 @@
       <c r="E7" s="32">
         <v>26.4071</v>
       </c>
-      <c r="F7" s="59">
+      <c r="F7" s="49">
         <f t="shared" ref="F7" si="1">$G$3/E7</f>
         <v>19.058586516505031</v>
       </c>
@@ -2141,7 +2141,7 @@
       <c r="E8" s="32">
         <v>13.334199999999999</v>
       </c>
-      <c r="F8" s="59">
+      <c r="F8" s="49">
         <f t="shared" ref="F8" si="2">$G$4/E8</f>
         <v>10.419072760270584</v>
       </c>
@@ -2185,7 +2185,7 @@
       <c r="E10" s="34">
         <v>47.3782</v>
       </c>
-      <c r="F10" s="58">
+      <c r="F10" s="48">
         <f t="shared" ref="F10" si="4">$G$2/E10</f>
         <v>13.568687708693028</v>
       </c>
@@ -2207,7 +2207,7 @@
       <c r="E11" s="32">
         <v>26.9099</v>
       </c>
-      <c r="F11" s="59">
+      <c r="F11" s="49">
         <f t="shared" ref="F11" si="5">$G$3/E11</f>
         <v>18.702484959067107</v>
       </c>
@@ -2229,7 +2229,7 @@
       <c r="E12" s="32">
         <v>19.8568</v>
       </c>
-      <c r="F12" s="59">
+      <c r="F12" s="49">
         <f t="shared" ref="F12" si="6">$G$4/E12</f>
         <v>6.9965956246726568</v>
       </c>
@@ -2273,7 +2273,7 @@
       <c r="E14" s="34">
         <v>54.841799999999999</v>
       </c>
-      <c r="F14" s="58">
+      <c r="F14" s="48">
         <f t="shared" ref="F14" si="8">$G$2/E14</f>
         <v>11.722080602751916</v>
       </c>
@@ -2295,7 +2295,7 @@
       <c r="E15" s="32">
         <v>27.556100000000001</v>
       </c>
-      <c r="F15" s="59">
+      <c r="F15" s="49">
         <f t="shared" ref="F15" si="9">$G$3/E15</f>
         <v>18.263905269613623</v>
       </c>
@@ -2317,7 +2317,7 @@
       <c r="E16" s="32">
         <v>26.534099999999999</v>
       </c>
-      <c r="F16" s="59">
+      <c r="F16" s="49">
         <f t="shared" ref="F16" si="10">$G$4/E16</f>
         <v>5.2359039876988485</v>
       </c>
@@ -2361,7 +2361,7 @@
       <c r="E18" s="34">
         <v>104.396</v>
       </c>
-      <c r="F18" s="60">
+      <c r="F18" s="50">
         <f>$G$18/E18</f>
         <v>33.929939844438486</v>
       </c>
@@ -2385,7 +2385,7 @@
       <c r="E19" s="32">
         <v>103.758</v>
       </c>
-      <c r="F19" s="61">
+      <c r="F19" s="51">
         <f>$G$19/E19</f>
         <v>28.756144104550973</v>
       </c>
@@ -2409,7 +2409,7 @@
       <c r="E20" s="32">
         <v>0</v>
       </c>
-      <c r="F20" s="61" t="e">
+      <c r="F20" s="51" t="e">
         <f>$G$20/E20</f>
         <v>#DIV/0!</v>
       </c>
@@ -2433,7 +2433,7 @@
       <c r="E21" s="33">
         <v>0.63803500000000002</v>
       </c>
-      <c r="F21" s="62">
+      <c r="F21" s="52">
         <f>$G$21/E21</f>
         <v>4.587632339918656</v>
       </c>
@@ -2457,7 +2457,7 @@
       <c r="E22" s="34">
         <v>137.636</v>
       </c>
-      <c r="F22" s="60">
+      <c r="F22" s="50">
         <f>$G$18/E22</f>
         <v>25.735636025458458</v>
       </c>
@@ -2480,7 +2480,7 @@
       <c r="E23" s="32">
         <v>108.649</v>
       </c>
-      <c r="F23" s="61">
+      <c r="F23" s="51">
         <f>$G$19/E23</f>
         <v>27.461642536976868</v>
       </c>
@@ -2502,7 +2502,7 @@
       <c r="E24" s="32">
         <v>26.6572</v>
       </c>
-      <c r="F24" s="61">
+      <c r="F24" s="51">
         <f>$G$20/E24</f>
         <v>20.840260792581368</v>
       </c>
@@ -2524,7 +2524,7 @@
       <c r="E25" s="33">
         <v>2.3293300000000001</v>
       </c>
-      <c r="F25" s="62">
+      <c r="F25" s="52">
         <f>$G$21/E25</f>
         <v>1.2566145629859229</v>
       </c>
@@ -2546,7 +2546,7 @@
       <c r="E26" s="34">
         <v>162.66499999999999</v>
       </c>
-      <c r="F26" s="60">
+      <c r="F26" s="50">
         <f t="shared" ref="F26" si="12">$G$18/E26</f>
         <v>21.775735407125076</v>
       </c>
@@ -2568,7 +2568,7 @@
       <c r="E27" s="32">
         <v>107.086</v>
       </c>
-      <c r="F27" s="61">
+      <c r="F27" s="51">
         <f t="shared" ref="F27" si="13">$G$19/E27</f>
         <v>27.862465681788468</v>
       </c>
@@ -2590,7 +2590,7 @@
       <c r="E28" s="32">
         <v>52.911099999999998</v>
       </c>
-      <c r="F28" s="61">
+      <c r="F28" s="51">
         <f t="shared" ref="F28" si="14">$G$20/E28</f>
         <v>10.499554913808256</v>
       </c>
@@ -2612,7 +2612,7 @@
       <c r="E29" s="33">
         <v>2.66764</v>
       </c>
-      <c r="F29" s="62">
+      <c r="F29" s="52">
         <f t="shared" ref="F29" si="15">$G$21/E29</f>
         <v>1.0972507534749816</v>
       </c>
@@ -2634,7 +2634,7 @@
       <c r="E30" s="34">
         <v>191.41</v>
       </c>
-      <c r="F30" s="60">
+      <c r="F30" s="50">
         <f>$G$18/E30</f>
         <v>18.505563972624209</v>
       </c>
@@ -2656,7 +2656,7 @@
       <c r="E31" s="32">
         <v>109.402</v>
       </c>
-      <c r="F31" s="61">
+      <c r="F31" s="51">
         <f t="shared" ref="F31" si="16">$G$19/E31</f>
         <v>27.272627557083048</v>
       </c>
@@ -2678,7 +2678,7 @@
       <c r="E32" s="32">
         <v>78.845100000000002</v>
       </c>
-      <c r="F32" s="61">
+      <c r="F32" s="51">
         <f t="shared" ref="F32" si="17">$G$20/E32</f>
         <v>7.0460053953891872</v>
       </c>
@@ -2700,7 +2700,7 @@
       <c r="E33" s="33">
         <v>3.1629299999999998</v>
       </c>
-      <c r="F33" s="62">
+      <c r="F33" s="52">
         <f t="shared" ref="F33" si="18">$G$21/E33</f>
         <v>0.92542990202122721</v>
       </c>
@@ -2722,7 +2722,7 @@
       <c r="E34" s="34">
         <v>221.24799999999999</v>
       </c>
-      <c r="F34" s="60">
+      <c r="F34" s="50">
         <f t="shared" ref="F34" si="19">$G$18/E34</f>
         <v>16.009862236042814</v>
       </c>
@@ -2744,7 +2744,7 @@
       <c r="E35" s="32">
         <v>112.101</v>
       </c>
-      <c r="F35" s="61">
+      <c r="F35" s="51">
         <f t="shared" ref="F35" si="20">$G$19/E35</f>
         <v>26.615998073166161</v>
       </c>
@@ -2766,7 +2766,7 @@
       <c r="E36" s="32">
         <v>105.348</v>
       </c>
-      <c r="F36" s="61">
+      <c r="F36" s="51">
         <f t="shared" ref="F36" si="21">$G$20/E36</f>
         <v>5.2734081330447662</v>
       </c>
@@ -2788,7 +2788,7 @@
       <c r="E37" s="33">
         <v>3.7989999999999999</v>
       </c>
-      <c r="F37" s="62">
+      <c r="F37" s="52">
         <f t="shared" ref="F37" si="22">$G$21/E37</f>
         <v>0.77048433798367999</v>
       </c>
@@ -2803,17 +2803,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="7"/>
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="3"/>
-  <pixelatorList sheetStid="5"/>
-  <pixelatorList sheetStid="6"/>
-</pixelators>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <woSheetsProps>
     <woSheetProps sheetStid="7" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0" isDbDashBoardSheet="0" isFlexPaperSheet="0">
@@ -2843,8 +2832,19 @@
 </woProps>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="7"/>
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="5"/>
+  <pixelatorList sheetStid="6"/>
+</pixelators>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -2853,7 +2853,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>

--- a/fig/HybridSimData.xlsx
+++ b/fig/HybridSimData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\abuqiqi\Project\CompressData\fig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85629E7E-D109-4F6D-BE0C-6827F6CA8686}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775B1FA6-8062-4AD3-8414-D943E9B6A5F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="599" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IO propt." sheetId="7" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="30">
   <si>
     <t>Metrics</t>
   </si>
@@ -55,14 +55,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>#Qubits ($n$)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>#Levels ($T$)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>#CalBlocks</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -140,6 +132,10 @@
   </si>
   <si>
     <t>BlockSim</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -151,7 +147,7 @@
     <numFmt numFmtId="176" formatCode="0.000"/>
     <numFmt numFmtId="177" formatCode="0.00\$\$"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,6 +189,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -383,7 +386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -424,9 +427,6 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -589,6 +589,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -889,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection sqref="A1:E9"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -921,11 +927,11 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="62">
+      <c r="A2" s="61">
         <v>1</v>
       </c>
-      <c r="B2" s="40" t="s">
-        <v>14</v>
+      <c r="B2" s="39" t="s">
+        <v>12</v>
       </c>
       <c r="C2" s="12">
         <v>7.0252600000000003</v>
@@ -933,15 +939,15 @@
       <c r="D2" s="13">
         <v>2.8139099999999999</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="14">
         <f>C2/D2</f>
         <v>2.4966185841053909</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="60"/>
-      <c r="B3" s="41" t="s">
-        <v>15</v>
+      <c r="A3" s="59"/>
+      <c r="B3" s="40" t="s">
+        <v>13</v>
       </c>
       <c r="C3" s="8">
         <v>5.2519499999999999</v>
@@ -949,15 +955,15 @@
       <c r="D3" s="9">
         <v>1.43923</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="15">
         <f>C3/D3</f>
         <v>3.6491387755952833</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="60"/>
-      <c r="B4" s="41" t="s">
-        <v>16</v>
+      <c r="A4" s="59"/>
+      <c r="B4" s="40" t="s">
+        <v>14</v>
       </c>
       <c r="C4" s="8">
         <v>1.76119</v>
@@ -965,15 +971,15 @@
       <c r="D4" s="9">
         <v>1.3469500000000001</v>
       </c>
-      <c r="E4" s="16">
-        <f t="shared" ref="E3:E4" si="0">C4/D4</f>
+      <c r="E4" s="15">
+        <f t="shared" ref="E4" si="0">C4/D4</f>
         <v>1.3075392553546901</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="61"/>
-      <c r="B5" s="42" t="s">
-        <v>17</v>
+      <c r="A5" s="60"/>
+      <c r="B5" s="41" t="s">
+        <v>15</v>
       </c>
       <c r="C5" s="10">
         <v>1.2119E-2</v>
@@ -981,14 +987,16 @@
       <c r="D5" s="11">
         <v>2.7729E-2</v>
       </c>
-      <c r="E5" s="14"/>
+      <c r="E5" s="70" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="60">
+      <c r="A6" s="59">
         <v>5</v>
       </c>
-      <c r="B6" s="40" t="s">
-        <v>14</v>
+      <c r="B6" s="39" t="s">
+        <v>12</v>
       </c>
       <c r="C6" s="8">
         <v>31.938099999999999</v>
@@ -996,16 +1004,16 @@
       <c r="D6" s="9">
         <v>2.5876899999999998</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="17">
         <f>C6/D6</f>
         <v>12.342320757123149</v>
       </c>
-      <c r="I6" s="19"/>
+      <c r="I6" s="18"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="60"/>
-      <c r="B7" s="41" t="s">
-        <v>15</v>
+      <c r="A7" s="59"/>
+      <c r="B7" s="40" t="s">
+        <v>13</v>
       </c>
       <c r="C7" s="8">
         <v>25.288499999999999</v>
@@ -1013,15 +1021,15 @@
       <c r="D7" s="9">
         <v>1.33497</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="16">
         <f t="shared" ref="E7:E8" si="1">C7/D7</f>
         <v>18.943122317355446</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="60"/>
-      <c r="B8" s="41" t="s">
-        <v>16</v>
+      <c r="A8" s="59"/>
+      <c r="B8" s="40" t="s">
+        <v>14</v>
       </c>
       <c r="C8" s="8">
         <v>6.5963500000000002</v>
@@ -1029,15 +1037,15 @@
       <c r="D8" s="9">
         <v>1.20696</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="15">
         <f t="shared" si="1"/>
         <v>5.4652598263405583</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="61"/>
-      <c r="B9" s="42" t="s">
-        <v>17</v>
+      <c r="A9" s="60"/>
+      <c r="B9" s="41" t="s">
+        <v>15</v>
       </c>
       <c r="C9" s="10">
         <v>5.3240999999999997E-2</v>
@@ -1045,7 +1053,9 @@
       <c r="D9" s="11">
         <v>4.5759000000000001E-2</v>
       </c>
-      <c r="E9" s="14"/>
+      <c r="E9" s="70" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
@@ -1071,7 +1081,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE10F391-D643-40E9-8CBA-0BC40E0D3325}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -1085,65 +1095,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="63"/>
+      <c r="D1" s="62" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="63"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="65"/>
+      <c r="B2" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="C3" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="45" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="63" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="64"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="66"/>
-      <c r="B2" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="44" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="46" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="44" t="s">
-        <v>25</v>
+      <c r="B4" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1174,297 +1184,297 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="25" t="s">
+      <c r="A1" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="24" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="22">
+      <c r="A2" s="21">
         <v>19</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="29">
+      <c r="C2" s="28">
         <v>108.32599999999999</v>
       </c>
-      <c r="D2" s="29">
+      <c r="D2" s="28">
         <v>53.730800000000002</v>
       </c>
-      <c r="E2" s="36">
+      <c r="E2" s="35">
         <f>C2/D2</f>
         <v>2.0160876071080271</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="22">
+      <c r="A3" s="21">
         <v>19</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="28">
         <v>81.946799999999996</v>
       </c>
-      <c r="D3" s="29">
+      <c r="D3" s="28">
         <v>26.991399999999999</v>
       </c>
-      <c r="E3" s="36">
+      <c r="E3" s="35">
         <f t="shared" ref="E3:E4" si="0">C3/D3</f>
         <v>3.036033699622843</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="22">
+      <c r="A4" s="21">
         <v>19</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="28">
         <v>26.208600000000001</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="28">
         <v>26.409300000000002</v>
       </c>
-      <c r="E4" s="36">
+      <c r="E4" s="35">
         <f t="shared" si="0"/>
         <v>0.99240040440299437</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="22">
+      <c r="A5" s="21">
         <v>19</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="29">
         <v>0.171067</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="29">
         <v>0.33018399999999998</v>
       </c>
-      <c r="E5" s="35"/>
+      <c r="E5" s="34"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="24">
-        <v>18</v>
-      </c>
-      <c r="B6" s="28" t="s">
+      <c r="A6" s="23">
+        <v>18</v>
+      </c>
+      <c r="B6" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="30">
         <v>138.435</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="30">
         <v>56.101399999999998</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E6" s="35">
         <f t="shared" ref="E6:E16" si="1">C6/D6</f>
         <v>2.4675854791502529</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="22">
-        <v>18</v>
-      </c>
-      <c r="B7" s="26" t="s">
+      <c r="A7" s="21">
+        <v>18</v>
+      </c>
+      <c r="B7" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="28">
         <v>110.631</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="28">
         <v>28.862100000000002</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="35">
         <f t="shared" si="1"/>
         <v>3.8330890683630088</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="22">
-        <v>18</v>
-      </c>
-      <c r="B8" s="26" t="s">
+      <c r="A8" s="21">
+        <v>18</v>
+      </c>
+      <c r="B8" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="28">
         <v>27.625900000000001</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="28">
         <v>26.878799999999998</v>
       </c>
-      <c r="E8" s="36">
+      <c r="E8" s="35">
         <f t="shared" si="1"/>
         <v>1.0277951396639733</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="23">
-        <v>18</v>
-      </c>
-      <c r="B9" s="27" t="s">
+      <c r="A9" s="22">
+        <v>18</v>
+      </c>
+      <c r="B9" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="30">
+      <c r="C9" s="29">
         <v>0.177343</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D9" s="29">
         <v>0.36058299999999999</v>
       </c>
-      <c r="E9" s="35"/>
+      <c r="E9" s="34"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="24">
+      <c r="A10" s="23">
         <v>17</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="31">
+      <c r="C10" s="30">
         <v>162.624</v>
       </c>
-      <c r="D10" s="31">
+      <c r="D10" s="30">
         <v>55.640599999999999</v>
       </c>
-      <c r="E10" s="36">
+      <c r="E10" s="35">
         <f t="shared" ref="E10" si="2">C10/D10</f>
         <v>2.9227578422950149</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="22">
+      <c r="A11" s="21">
         <v>17</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="28">
         <v>135.79900000000001</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="28">
         <v>28.547499999999999</v>
       </c>
-      <c r="E11" s="36">
+      <c r="E11" s="35">
         <f t="shared" si="1"/>
         <v>4.7569489447412208</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="22">
+      <c r="A12" s="21">
         <v>17</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="28">
         <v>26.661200000000001</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="28">
         <v>26.7011</v>
       </c>
-      <c r="E12" s="36">
+      <c r="E12" s="35">
         <f t="shared" si="1"/>
         <v>0.99850567954129232</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="23">
+      <c r="A13" s="22">
         <v>17</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="30">
+      <c r="C13" s="29">
         <v>0.16329199999999999</v>
       </c>
-      <c r="D13" s="30">
+      <c r="D13" s="29">
         <v>0.392042</v>
       </c>
-      <c r="E13" s="35"/>
+      <c r="E13" s="34"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="24">
+      <c r="A14" s="23">
         <v>16</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="31">
+      <c r="C14" s="30">
         <v>188.994</v>
       </c>
-      <c r="D14" s="31">
+      <c r="D14" s="30">
         <v>56.413800000000002</v>
       </c>
-      <c r="E14" s="36">
+      <c r="E14" s="35">
         <f t="shared" ref="E14" si="3">C14/D14</f>
         <v>3.350137732257001</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="22">
+      <c r="A15" s="21">
         <v>16</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="29">
+      <c r="C15" s="28">
         <v>161.904</v>
       </c>
-      <c r="D15" s="29">
+      <c r="D15" s="28">
         <v>29.235099999999999</v>
       </c>
-      <c r="E15" s="36">
+      <c r="E15" s="35">
         <f t="shared" si="1"/>
         <v>5.5380005541284278</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="22">
+      <c r="A16" s="21">
         <v>16</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="29">
+      <c r="C16" s="28">
         <v>26.934100000000001</v>
       </c>
-      <c r="D16" s="29">
+      <c r="D16" s="28">
         <v>26.5898</v>
       </c>
-      <c r="E16" s="36">
+      <c r="E16" s="35">
         <f t="shared" si="1"/>
         <v>1.0129485742653197</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="23">
+      <c r="A17" s="22">
         <v>16</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="30">
+      <c r="C17" s="29">
         <v>0.15568799999999999</v>
       </c>
-      <c r="D17" s="30">
+      <c r="D17" s="29">
         <v>0.58884999999999998</v>
       </c>
-      <c r="E17" s="35"/>
+      <c r="E17" s="34"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1478,7 +1488,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection sqref="A1:E13"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1491,212 +1501,218 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="25" t="s">
+      <c r="A1" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="24" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="67">
-        <v>18</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="31">
+      <c r="A2" s="66">
+        <v>18</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="30">
         <v>90.901600000000002</v>
       </c>
-      <c r="D2" s="31">
+      <c r="D2" s="30">
         <v>14.1393</v>
       </c>
-      <c r="E2" s="36">
+      <c r="E2" s="35">
         <f t="shared" ref="E2:E12" si="0">C2/D2</f>
         <v>6.4290028502118206</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="68"/>
-      <c r="B3" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="29">
+      <c r="A3" s="67"/>
+      <c r="B3" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="28">
         <v>69.791799999999995</v>
       </c>
-      <c r="D3" s="29">
+      <c r="D3" s="28">
         <v>7.1901799999999998</v>
       </c>
-      <c r="E3" s="36">
+      <c r="E3" s="35">
         <f t="shared" si="0"/>
         <v>9.7065442033440057</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="68"/>
-      <c r="B4" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="29">
+      <c r="A4" s="67"/>
+      <c r="B4" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="28">
         <v>21.0319</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="28">
         <v>6.8321500000000004</v>
       </c>
-      <c r="E4" s="36">
+      <c r="E4" s="35">
         <f t="shared" si="0"/>
         <v>3.0783721083407127</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="69"/>
-      <c r="B5" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="30">
+      <c r="A5" s="68"/>
+      <c r="B5" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="29">
         <v>7.7977000000000005E-2</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="29">
         <v>0.11702</v>
       </c>
-      <c r="E5" s="35"/>
+      <c r="E5" s="69" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="67">
+      <c r="A6" s="66">
         <f t="shared" ref="A6" si="1">A2+2</f>
         <v>20</v>
       </c>
-      <c r="B6" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="31">
+      <c r="B6" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="30">
         <v>365.78800000000001</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="30">
         <v>55.903199999999998</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E6" s="35">
         <f t="shared" ref="E6" si="2">C6/D6</f>
         <v>6.5432390274617553</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="68"/>
-      <c r="B7" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="29">
+      <c r="A7" s="67"/>
+      <c r="B7" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="28">
         <v>281.42500000000001</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="28">
         <v>28.243300000000001</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="35">
         <f t="shared" si="0"/>
         <v>9.9643101195681805</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="68"/>
-      <c r="B8" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="29">
+      <c r="A8" s="67"/>
+      <c r="B8" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="28">
         <v>83.981800000000007</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="28">
         <v>27.0731</v>
       </c>
-      <c r="E8" s="36">
+      <c r="E8" s="35">
         <f t="shared" si="0"/>
         <v>3.1020385548755041</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="69"/>
-      <c r="B9" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="30">
+      <c r="A9" s="68"/>
+      <c r="B9" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="29">
         <v>0.381166</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D9" s="29">
         <v>0.58686499999999997</v>
       </c>
-      <c r="E9" s="35"/>
+      <c r="E9" s="69" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="67">
+      <c r="A10" s="66">
         <f t="shared" ref="A10" si="3">A6+2</f>
         <v>22</v>
       </c>
-      <c r="B10" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="31">
+      <c r="B10" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="30">
         <v>1423.42</v>
       </c>
-      <c r="D10" s="31">
+      <c r="D10" s="30">
         <v>216.029</v>
       </c>
-      <c r="E10" s="36">
+      <c r="E10" s="35">
         <f t="shared" ref="E10" si="4">C10/D10</f>
         <v>6.5890227700910531</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="68"/>
-      <c r="B11" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="29">
+      <c r="A11" s="67"/>
+      <c r="B11" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="28">
         <v>1092.5899999999999</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="28">
         <v>109.678</v>
       </c>
-      <c r="E11" s="36">
+      <c r="E11" s="35">
         <f t="shared" si="0"/>
         <v>9.9617972610733236</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="68"/>
-      <c r="B12" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="29">
+      <c r="A12" s="67"/>
+      <c r="B12" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="28">
         <v>329.17099999999999</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="28">
         <v>104.008</v>
       </c>
-      <c r="E12" s="36">
+      <c r="E12" s="35">
         <f t="shared" si="0"/>
         <v>3.164862318283209</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="69"/>
-      <c r="B13" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="30">
+      <c r="A13" s="68"/>
+      <c r="B13" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="29">
         <v>1.6575299999999999</v>
       </c>
-      <c r="D13" s="30">
+      <c r="D13" s="29">
         <v>2.3425099999999999</v>
       </c>
-      <c r="E13" s="35"/>
+      <c r="E13" s="69" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
@@ -1716,7 +1732,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C5"/>
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1727,210 +1743,216 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="25" t="s">
+      <c r="A1" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="24" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="67">
+      <c r="A2" s="66">
         <v>5</v>
       </c>
-      <c r="B2" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="31">
+      <c r="B2" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="30">
         <v>642.86</v>
       </c>
-      <c r="D2" s="31">
+      <c r="D2" s="30">
         <v>55.164700000000003</v>
       </c>
-      <c r="E2" s="36">
+      <c r="E2" s="35">
         <f>C2/D2</f>
         <v>11.653466800327021</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="68"/>
-      <c r="B3" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="29">
+      <c r="A3" s="67"/>
+      <c r="B3" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="28">
         <v>503.28199999999998</v>
       </c>
-      <c r="D3" s="29">
+      <c r="D3" s="28">
         <v>27.528300000000002</v>
       </c>
-      <c r="E3" s="36">
+      <c r="E3" s="35">
         <f>C3/D3</f>
         <v>18.282349436761439</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="68"/>
-      <c r="B4" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="29">
+      <c r="A4" s="67"/>
+      <c r="B4" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="28">
         <v>138.93</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="28">
         <v>26.882000000000001</v>
       </c>
-      <c r="E4" s="36">
+      <c r="E4" s="35">
         <f>C4/D4</f>
         <v>5.1681422513205861</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="69"/>
-      <c r="B5" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="30">
+      <c r="A5" s="68"/>
+      <c r="B5" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="29">
         <v>0.64837199999999995</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="29">
         <v>0.75438000000000005</v>
       </c>
-      <c r="E5" s="35"/>
+      <c r="E5" s="69" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="67">
+      <c r="A6" s="66">
         <v>10</v>
       </c>
-      <c r="B6" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="31">
+      <c r="B6" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="30">
         <v>1348.71</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="30">
         <v>55.703800000000001</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E6" s="35">
         <f>C6/D6</f>
         <v>24.212172239595862</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="68"/>
-      <c r="B7" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="29">
+      <c r="A7" s="67"/>
+      <c r="B7" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="28">
         <v>1067.4100000000001</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="28">
         <v>27.756399999999999</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="35">
         <f>C7/D7</f>
         <v>38.456356011586522</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="68"/>
-      <c r="B8" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="29">
+      <c r="A8" s="67"/>
+      <c r="B8" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="28">
         <v>279.91899999999998</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="28">
         <v>26.558</v>
       </c>
-      <c r="E8" s="36">
+      <c r="E8" s="35">
         <f>C8/D8</f>
         <v>10.539912644024399</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="69"/>
-      <c r="B9" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="30">
+      <c r="A9" s="68"/>
+      <c r="B9" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="29">
         <v>1.3798699999999999</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D9" s="29">
         <v>1.38944</v>
       </c>
-      <c r="E9" s="35"/>
+      <c r="E9" s="69" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="67">
+      <c r="A10" s="66">
         <v>15</v>
       </c>
-      <c r="B10" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="31">
+      <c r="B10" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="30">
         <v>1989.26</v>
       </c>
-      <c r="D10" s="31">
+      <c r="D10" s="30">
         <v>56.359000000000002</v>
       </c>
-      <c r="E10" s="36">
+      <c r="E10" s="35">
         <f>C10/D10</f>
         <v>35.29622597987899</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="68"/>
-      <c r="B11" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="29">
+      <c r="A11" s="67"/>
+      <c r="B11" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="28">
         <v>1568.29</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="28">
         <v>27.628799999999998</v>
       </c>
-      <c r="E11" s="36">
+      <c r="E11" s="35">
         <f>C11/D11</f>
         <v>56.762870627750758</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="68"/>
-      <c r="B12" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="29">
+      <c r="A12" s="67"/>
+      <c r="B12" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="28">
         <v>418.97</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="28">
         <v>26.7866</v>
       </c>
-      <c r="E12" s="36">
+      <c r="E12" s="35">
         <f>C12/D12</f>
         <v>15.641029469958861</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="69"/>
-      <c r="B13" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="30">
+      <c r="A13" s="68"/>
+      <c r="B13" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="29">
         <v>1.9994000000000001</v>
       </c>
-      <c r="D13" s="30">
+      <c r="D13" s="29">
         <v>1.9435800000000001</v>
       </c>
-      <c r="E13" s="35"/>
+      <c r="E13" s="69" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
@@ -1963,836 +1985,836 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="B1" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="47" t="s">
-        <v>30</v>
+      <c r="F1" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="46" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="24">
+      <c r="A2" s="23">
         <v>20</v>
       </c>
-      <c r="B2" s="24">
-        <v>18</v>
-      </c>
-      <c r="C2" s="37">
+      <c r="B2" s="23">
+        <v>18</v>
+      </c>
+      <c r="C2" s="36">
         <v>1</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="53">
+      <c r="E2" s="52">
         <v>24.851299999999998</v>
       </c>
-      <c r="F2" s="48">
+      <c r="F2" s="47">
         <f>$G$2/E2</f>
         <v>25.868264436870508</v>
       </c>
-      <c r="G2" s="56">
+      <c r="G2" s="55">
         <v>642.86</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="22">
+      <c r="A3" s="21">
         <v>20</v>
       </c>
-      <c r="B3" s="22">
-        <v>18</v>
-      </c>
-      <c r="C3" s="38">
+      <c r="B3" s="21">
+        <v>18</v>
+      </c>
+      <c r="C3" s="37">
         <v>1</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="54">
+      <c r="E3" s="53">
         <v>24.587</v>
       </c>
-      <c r="F3" s="49">
+      <c r="F3" s="48">
         <f>$G$3/E3</f>
         <v>20.469435067311995</v>
       </c>
-      <c r="G3" s="57">
+      <c r="G3" s="56">
         <v>503.28199999999998</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="22">
+      <c r="A4" s="21">
         <v>20</v>
       </c>
-      <c r="B4" s="22">
-        <v>18</v>
-      </c>
-      <c r="C4" s="38">
+      <c r="B4" s="21">
+        <v>18</v>
+      </c>
+      <c r="C4" s="37">
         <v>1</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="54">
+      <c r="E4" s="53">
         <v>0</v>
       </c>
-      <c r="F4" s="49" t="e">
+      <c r="F4" s="48" t="e">
         <f>$G$4/E4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G4" s="57">
+      <c r="G4" s="56">
         <v>138.93</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="22">
+      <c r="A5" s="21">
         <v>20</v>
       </c>
-      <c r="B5" s="22">
-        <v>18</v>
-      </c>
-      <c r="C5" s="39">
+      <c r="B5" s="21">
+        <v>18</v>
+      </c>
+      <c r="C5" s="38">
         <v>1</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="55">
+      <c r="E5" s="54">
         <v>0.26430300000000001</v>
       </c>
-      <c r="F5" s="35">
+      <c r="F5" s="34">
         <f>$G$5/E5</f>
         <v>2.4531390109079347</v>
       </c>
-      <c r="G5" s="58">
+      <c r="G5" s="57">
         <v>0.64837199999999995</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="22">
+      <c r="A6" s="21">
         <v>20</v>
       </c>
-      <c r="B6" s="22">
-        <v>18</v>
-      </c>
-      <c r="C6" s="37">
+      <c r="B6" s="21">
+        <v>18</v>
+      </c>
+      <c r="C6" s="36">
         <v>2</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6" s="33">
         <v>40.197099999999999</v>
       </c>
-      <c r="F6" s="48">
+      <c r="F6" s="47">
         <f t="shared" ref="F6" si="0">$G$2/E6</f>
         <v>15.992695990506778</v>
       </c>
-      <c r="G6" s="29"/>
+      <c r="G6" s="28"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="22">
+      <c r="A7" s="21">
         <v>20</v>
       </c>
-      <c r="B7" s="22">
-        <v>18</v>
-      </c>
-      <c r="C7" s="38">
+      <c r="B7" s="21">
+        <v>18</v>
+      </c>
+      <c r="C7" s="37">
         <v>2</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="32">
+      <c r="E7" s="31">
         <v>26.4071</v>
       </c>
-      <c r="F7" s="49">
+      <c r="F7" s="48">
         <f t="shared" ref="F7" si="1">$G$3/E7</f>
         <v>19.058586516505031</v>
       </c>
-      <c r="G7" s="29"/>
+      <c r="G7" s="28"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="22">
+      <c r="A8" s="21">
         <v>20</v>
       </c>
-      <c r="B8" s="22">
-        <v>18</v>
-      </c>
-      <c r="C8" s="38">
+      <c r="B8" s="21">
+        <v>18</v>
+      </c>
+      <c r="C8" s="37">
         <v>2</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="32">
+      <c r="E8" s="31">
         <v>13.334199999999999</v>
       </c>
-      <c r="F8" s="49">
+      <c r="F8" s="48">
         <f t="shared" ref="F8" si="2">$G$4/E8</f>
         <v>10.419072760270584</v>
       </c>
-      <c r="G8" s="29"/>
+      <c r="G8" s="28"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="22">
+      <c r="A9" s="21">
         <v>20</v>
       </c>
-      <c r="B9" s="22">
-        <v>18</v>
-      </c>
-      <c r="C9" s="39">
+      <c r="B9" s="21">
+        <v>18</v>
+      </c>
+      <c r="C9" s="38">
         <v>2</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E9" s="32">
         <v>0.45575199999999999</v>
       </c>
-      <c r="F9" s="35">
+      <c r="F9" s="34">
         <f t="shared" ref="F9" si="3">$G$5/E9</f>
         <v>1.4226421387070161</v>
       </c>
-      <c r="G9" s="29"/>
+      <c r="G9" s="28"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="22">
+      <c r="A10" s="21">
         <v>20</v>
       </c>
-      <c r="B10" s="22">
-        <v>18</v>
-      </c>
-      <c r="C10" s="37">
+      <c r="B10" s="21">
+        <v>18</v>
+      </c>
+      <c r="C10" s="36">
         <v>3</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="34">
+      <c r="E10" s="33">
         <v>47.3782</v>
       </c>
-      <c r="F10" s="48">
+      <c r="F10" s="47">
         <f t="shared" ref="F10" si="4">$G$2/E10</f>
         <v>13.568687708693028</v>
       </c>
-      <c r="G10" s="29"/>
+      <c r="G10" s="28"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="22">
+      <c r="A11" s="21">
         <v>20</v>
       </c>
-      <c r="B11" s="22">
-        <v>18</v>
-      </c>
-      <c r="C11" s="38">
+      <c r="B11" s="21">
+        <v>18</v>
+      </c>
+      <c r="C11" s="37">
         <v>3</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="32">
+      <c r="E11" s="31">
         <v>26.9099</v>
       </c>
-      <c r="F11" s="49">
+      <c r="F11" s="48">
         <f t="shared" ref="F11" si="5">$G$3/E11</f>
         <v>18.702484959067107</v>
       </c>
-      <c r="G11" s="29"/>
+      <c r="G11" s="28"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="22">
+      <c r="A12" s="21">
         <v>20</v>
       </c>
-      <c r="B12" s="22">
-        <v>18</v>
-      </c>
-      <c r="C12" s="38">
+      <c r="B12" s="21">
+        <v>18</v>
+      </c>
+      <c r="C12" s="37">
         <v>3</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12" s="31">
         <v>19.8568</v>
       </c>
-      <c r="F12" s="49">
+      <c r="F12" s="48">
         <f t="shared" ref="F12" si="6">$G$4/E12</f>
         <v>6.9965956246726568</v>
       </c>
-      <c r="G12" s="29"/>
+      <c r="G12" s="28"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="22">
+      <c r="A13" s="21">
         <v>20</v>
       </c>
-      <c r="B13" s="22">
-        <v>18</v>
-      </c>
-      <c r="C13" s="39">
+      <c r="B13" s="21">
+        <v>18</v>
+      </c>
+      <c r="C13" s="38">
         <v>3</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="33">
+      <c r="E13" s="32">
         <v>0.61150700000000002</v>
       </c>
-      <c r="F13" s="35">
+      <c r="F13" s="34">
         <f t="shared" ref="F13" si="7">$G$5/E13</f>
         <v>1.0602854914171056</v>
       </c>
-      <c r="G13" s="29"/>
+      <c r="G13" s="28"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="22">
+      <c r="A14" s="21">
         <v>20</v>
       </c>
-      <c r="B14" s="22">
-        <v>18</v>
-      </c>
-      <c r="C14" s="37">
+      <c r="B14" s="21">
+        <v>18</v>
+      </c>
+      <c r="C14" s="36">
         <v>4</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="34">
+      <c r="E14" s="33">
         <v>54.841799999999999</v>
       </c>
-      <c r="F14" s="48">
+      <c r="F14" s="47">
         <f t="shared" ref="F14" si="8">$G$2/E14</f>
         <v>11.722080602751916</v>
       </c>
-      <c r="G14" s="29"/>
+      <c r="G14" s="28"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="22">
+      <c r="A15" s="21">
         <v>20</v>
       </c>
-      <c r="B15" s="22">
-        <v>18</v>
-      </c>
-      <c r="C15" s="38">
+      <c r="B15" s="21">
+        <v>18</v>
+      </c>
+      <c r="C15" s="37">
         <v>4</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="32">
+      <c r="E15" s="31">
         <v>27.556100000000001</v>
       </c>
-      <c r="F15" s="49">
+      <c r="F15" s="48">
         <f t="shared" ref="F15" si="9">$G$3/E15</f>
         <v>18.263905269613623</v>
       </c>
-      <c r="G15" s="29"/>
+      <c r="G15" s="28"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="22">
+      <c r="A16" s="21">
         <v>20</v>
       </c>
-      <c r="B16" s="22">
-        <v>18</v>
-      </c>
-      <c r="C16" s="38">
+      <c r="B16" s="21">
+        <v>18</v>
+      </c>
+      <c r="C16" s="37">
         <v>4</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="32">
+      <c r="E16" s="31">
         <v>26.534099999999999</v>
       </c>
-      <c r="F16" s="49">
+      <c r="F16" s="48">
         <f t="shared" ref="F16" si="10">$G$4/E16</f>
         <v>5.2359039876988485</v>
       </c>
-      <c r="G16" s="29"/>
+      <c r="G16" s="28"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="23">
+      <c r="A17" s="22">
         <v>20</v>
       </c>
-      <c r="B17" s="23">
-        <v>18</v>
-      </c>
-      <c r="C17" s="39">
+      <c r="B17" s="22">
+        <v>18</v>
+      </c>
+      <c r="C17" s="38">
         <v>4</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="33">
+      <c r="E17" s="32">
         <v>0.75159600000000004</v>
       </c>
-      <c r="F17" s="35">
+      <c r="F17" s="34">
         <f t="shared" ref="F17" si="11">$G$5/E17</f>
         <v>0.86266025896891407</v>
       </c>
-      <c r="G17" s="29"/>
+      <c r="G17" s="28"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="24">
+      <c r="A18" s="23">
         <v>22</v>
       </c>
-      <c r="B18" s="24">
-        <v>18</v>
-      </c>
-      <c r="C18" s="37">
+      <c r="B18" s="23">
+        <v>18</v>
+      </c>
+      <c r="C18" s="36">
         <v>1</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="34">
+      <c r="E18" s="33">
         <v>104.396</v>
       </c>
-      <c r="F18" s="50">
+      <c r="F18" s="49">
         <f>$G$18/E18</f>
         <v>33.929939844438486</v>
       </c>
-      <c r="G18" s="29">
+      <c r="G18" s="28">
         <v>3542.15</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="22">
+      <c r="A19" s="21">
         <v>22</v>
       </c>
-      <c r="B19" s="22">
-        <v>18</v>
-      </c>
-      <c r="C19" s="38">
+      <c r="B19" s="21">
+        <v>18</v>
+      </c>
+      <c r="C19" s="37">
         <v>1</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="32">
+      <c r="E19" s="31">
         <v>103.758</v>
       </c>
-      <c r="F19" s="51">
+      <c r="F19" s="50">
         <f>$G$19/E19</f>
         <v>28.756144104550973</v>
       </c>
-      <c r="G19" s="29">
+      <c r="G19" s="28">
         <v>2983.68</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="22">
+      <c r="A20" s="21">
         <v>22</v>
       </c>
-      <c r="B20" s="22">
-        <v>18</v>
-      </c>
-      <c r="C20" s="38">
+      <c r="B20" s="21">
+        <v>18</v>
+      </c>
+      <c r="C20" s="37">
         <v>1</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="32">
+      <c r="E20" s="31">
         <v>0</v>
       </c>
-      <c r="F20" s="51" t="e">
+      <c r="F20" s="50" t="e">
         <f>$G$20/E20</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G20" s="29">
+      <c r="G20" s="28">
         <v>555.54300000000001</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="22">
+      <c r="A21" s="21">
         <v>22</v>
       </c>
-      <c r="B21" s="22">
-        <v>18</v>
-      </c>
-      <c r="C21" s="39">
+      <c r="B21" s="21">
+        <v>18</v>
+      </c>
+      <c r="C21" s="38">
         <v>1</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="33">
+      <c r="E21" s="32">
         <v>0.63803500000000002</v>
       </c>
-      <c r="F21" s="52">
+      <c r="F21" s="51">
         <f>$G$21/E21</f>
         <v>4.587632339918656</v>
       </c>
-      <c r="G21" s="29">
+      <c r="G21" s="28">
         <v>2.9270700000000001</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="22">
+      <c r="A22" s="21">
         <v>22</v>
       </c>
-      <c r="B22" s="22">
-        <v>18</v>
-      </c>
-      <c r="C22" s="37">
+      <c r="B22" s="21">
+        <v>18</v>
+      </c>
+      <c r="C22" s="36">
         <v>4</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="D22" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="34">
+      <c r="E22" s="33">
         <v>137.636</v>
       </c>
-      <c r="F22" s="50">
+      <c r="F22" s="49">
         <f>$G$18/E22</f>
         <v>25.735636025458458</v>
       </c>
-      <c r="G22" s="29"/>
-      <c r="I22" s="19"/>
+      <c r="G22" s="28"/>
+      <c r="I22" s="18"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="22">
+      <c r="A23" s="21">
         <v>22</v>
       </c>
-      <c r="B23" s="22">
-        <v>18</v>
-      </c>
-      <c r="C23" s="38">
+      <c r="B23" s="21">
+        <v>18</v>
+      </c>
+      <c r="C23" s="37">
         <v>4</v>
       </c>
-      <c r="D23" s="26" t="s">
+      <c r="D23" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="32">
+      <c r="E23" s="31">
         <v>108.649</v>
       </c>
-      <c r="F23" s="51">
+      <c r="F23" s="50">
         <f>$G$19/E23</f>
         <v>27.461642536976868</v>
       </c>
-      <c r="G23" s="29"/>
+      <c r="G23" s="28"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="22">
+      <c r="A24" s="21">
         <v>22</v>
       </c>
-      <c r="B24" s="22">
-        <v>18</v>
-      </c>
-      <c r="C24" s="38">
+      <c r="B24" s="21">
+        <v>18</v>
+      </c>
+      <c r="C24" s="37">
         <v>4</v>
       </c>
-      <c r="D24" s="26" t="s">
+      <c r="D24" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="32">
+      <c r="E24" s="31">
         <v>26.6572</v>
       </c>
-      <c r="F24" s="51">
+      <c r="F24" s="50">
         <f>$G$20/E24</f>
         <v>20.840260792581368</v>
       </c>
-      <c r="G24" s="29"/>
+      <c r="G24" s="28"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="22">
+      <c r="A25" s="21">
         <v>22</v>
       </c>
-      <c r="B25" s="22">
-        <v>18</v>
-      </c>
-      <c r="C25" s="39">
+      <c r="B25" s="21">
+        <v>18</v>
+      </c>
+      <c r="C25" s="38">
         <v>4</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="33">
+      <c r="E25" s="32">
         <v>2.3293300000000001</v>
       </c>
-      <c r="F25" s="52">
+      <c r="F25" s="51">
         <f>$G$21/E25</f>
         <v>1.2566145629859229</v>
       </c>
-      <c r="G25" s="29"/>
+      <c r="G25" s="28"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="22">
+      <c r="A26" s="21">
         <v>22</v>
       </c>
-      <c r="B26" s="22">
-        <v>18</v>
-      </c>
-      <c r="C26" s="37">
+      <c r="B26" s="21">
+        <v>18</v>
+      </c>
+      <c r="C26" s="36">
         <v>8</v>
       </c>
-      <c r="D26" s="28" t="s">
+      <c r="D26" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="34">
+      <c r="E26" s="33">
         <v>162.66499999999999</v>
       </c>
-      <c r="F26" s="50">
+      <c r="F26" s="49">
         <f t="shared" ref="F26" si="12">$G$18/E26</f>
         <v>21.775735407125076</v>
       </c>
-      <c r="G26" s="29"/>
+      <c r="G26" s="28"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="22">
+      <c r="A27" s="21">
         <v>22</v>
       </c>
-      <c r="B27" s="22">
-        <v>18</v>
-      </c>
-      <c r="C27" s="38">
+      <c r="B27" s="21">
+        <v>18</v>
+      </c>
+      <c r="C27" s="37">
         <v>8</v>
       </c>
-      <c r="D27" s="26" t="s">
+      <c r="D27" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="32">
+      <c r="E27" s="31">
         <v>107.086</v>
       </c>
-      <c r="F27" s="51">
+      <c r="F27" s="50">
         <f t="shared" ref="F27" si="13">$G$19/E27</f>
         <v>27.862465681788468</v>
       </c>
-      <c r="G27" s="29"/>
+      <c r="G27" s="28"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="22">
+      <c r="A28" s="21">
         <v>22</v>
       </c>
-      <c r="B28" s="22">
-        <v>18</v>
-      </c>
-      <c r="C28" s="38">
+      <c r="B28" s="21">
+        <v>18</v>
+      </c>
+      <c r="C28" s="37">
         <v>8</v>
       </c>
-      <c r="D28" s="26" t="s">
+      <c r="D28" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E28" s="32">
+      <c r="E28" s="31">
         <v>52.911099999999998</v>
       </c>
-      <c r="F28" s="51">
+      <c r="F28" s="50">
         <f t="shared" ref="F28" si="14">$G$20/E28</f>
         <v>10.499554913808256</v>
       </c>
-      <c r="G28" s="29"/>
+      <c r="G28" s="28"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="22">
+      <c r="A29" s="21">
         <v>22</v>
       </c>
-      <c r="B29" s="22">
-        <v>18</v>
-      </c>
-      <c r="C29" s="39">
+      <c r="B29" s="21">
+        <v>18</v>
+      </c>
+      <c r="C29" s="38">
         <v>8</v>
       </c>
-      <c r="D29" s="27" t="s">
+      <c r="D29" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E29" s="33">
+      <c r="E29" s="32">
         <v>2.66764</v>
       </c>
-      <c r="F29" s="52">
+      <c r="F29" s="51">
         <f t="shared" ref="F29" si="15">$G$21/E29</f>
         <v>1.0972507534749816</v>
       </c>
-      <c r="G29" s="29"/>
+      <c r="G29" s="28"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="22">
+      <c r="A30" s="21">
         <v>22</v>
       </c>
-      <c r="B30" s="22">
-        <v>18</v>
-      </c>
-      <c r="C30" s="37">
+      <c r="B30" s="21">
+        <v>18</v>
+      </c>
+      <c r="C30" s="36">
         <v>12</v>
       </c>
-      <c r="D30" s="28" t="s">
+      <c r="D30" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E30" s="34">
+      <c r="E30" s="33">
         <v>191.41</v>
       </c>
-      <c r="F30" s="50">
+      <c r="F30" s="49">
         <f>$G$18/E30</f>
         <v>18.505563972624209</v>
       </c>
-      <c r="G30" s="29"/>
+      <c r="G30" s="28"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="22">
+      <c r="A31" s="21">
         <v>22</v>
       </c>
-      <c r="B31" s="22">
-        <v>18</v>
-      </c>
-      <c r="C31" s="38">
+      <c r="B31" s="21">
+        <v>18</v>
+      </c>
+      <c r="C31" s="37">
         <v>12</v>
       </c>
-      <c r="D31" s="26" t="s">
+      <c r="D31" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="32">
+      <c r="E31" s="31">
         <v>109.402</v>
       </c>
-      <c r="F31" s="51">
+      <c r="F31" s="50">
         <f t="shared" ref="F31" si="16">$G$19/E31</f>
         <v>27.272627557083048</v>
       </c>
-      <c r="G31" s="29"/>
+      <c r="G31" s="28"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="22">
+      <c r="A32" s="21">
         <v>22</v>
       </c>
-      <c r="B32" s="22">
-        <v>18</v>
-      </c>
-      <c r="C32" s="38">
+      <c r="B32" s="21">
+        <v>18</v>
+      </c>
+      <c r="C32" s="37">
         <v>12</v>
       </c>
-      <c r="D32" s="26" t="s">
+      <c r="D32" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E32" s="32">
+      <c r="E32" s="31">
         <v>78.845100000000002</v>
       </c>
-      <c r="F32" s="51">
+      <c r="F32" s="50">
         <f t="shared" ref="F32" si="17">$G$20/E32</f>
         <v>7.0460053953891872</v>
       </c>
-      <c r="G32" s="29"/>
+      <c r="G32" s="28"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="22">
+      <c r="A33" s="21">
         <v>22</v>
       </c>
-      <c r="B33" s="22">
-        <v>18</v>
-      </c>
-      <c r="C33" s="39">
+      <c r="B33" s="21">
+        <v>18</v>
+      </c>
+      <c r="C33" s="38">
         <v>12</v>
       </c>
-      <c r="D33" s="27" t="s">
+      <c r="D33" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E33" s="33">
+      <c r="E33" s="32">
         <v>3.1629299999999998</v>
       </c>
-      <c r="F33" s="52">
+      <c r="F33" s="51">
         <f t="shared" ref="F33" si="18">$G$21/E33</f>
         <v>0.92542990202122721</v>
       </c>
-      <c r="G33" s="29"/>
+      <c r="G33" s="28"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="22">
+      <c r="A34" s="21">
         <v>22</v>
       </c>
-      <c r="B34" s="22">
-        <v>18</v>
-      </c>
-      <c r="C34" s="37">
+      <c r="B34" s="21">
+        <v>18</v>
+      </c>
+      <c r="C34" s="36">
         <v>16</v>
       </c>
-      <c r="D34" s="28" t="s">
+      <c r="D34" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E34" s="34">
+      <c r="E34" s="33">
         <v>221.24799999999999</v>
       </c>
-      <c r="F34" s="50">
+      <c r="F34" s="49">
         <f t="shared" ref="F34" si="19">$G$18/E34</f>
         <v>16.009862236042814</v>
       </c>
-      <c r="G34" s="29"/>
+      <c r="G34" s="28"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="22">
+      <c r="A35" s="21">
         <v>22</v>
       </c>
-      <c r="B35" s="22">
-        <v>18</v>
-      </c>
-      <c r="C35" s="38">
+      <c r="B35" s="21">
+        <v>18</v>
+      </c>
+      <c r="C35" s="37">
         <v>16</v>
       </c>
-      <c r="D35" s="26" t="s">
+      <c r="D35" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="E35" s="32">
+      <c r="E35" s="31">
         <v>112.101</v>
       </c>
-      <c r="F35" s="51">
+      <c r="F35" s="50">
         <f t="shared" ref="F35" si="20">$G$19/E35</f>
         <v>26.615998073166161</v>
       </c>
-      <c r="G35" s="29"/>
+      <c r="G35" s="28"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="22">
+      <c r="A36" s="21">
         <v>22</v>
       </c>
-      <c r="B36" s="22">
-        <v>18</v>
-      </c>
-      <c r="C36" s="38">
+      <c r="B36" s="21">
+        <v>18</v>
+      </c>
+      <c r="C36" s="37">
         <v>16</v>
       </c>
-      <c r="D36" s="26" t="s">
+      <c r="D36" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E36" s="32">
+      <c r="E36" s="31">
         <v>105.348</v>
       </c>
-      <c r="F36" s="51">
+      <c r="F36" s="50">
         <f t="shared" ref="F36" si="21">$G$20/E36</f>
         <v>5.2734081330447662</v>
       </c>
-      <c r="G36" s="29"/>
+      <c r="G36" s="28"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="23">
+      <c r="A37" s="22">
         <v>22</v>
       </c>
-      <c r="B37" s="23">
-        <v>18</v>
-      </c>
-      <c r="C37" s="39">
+      <c r="B37" s="22">
+        <v>18</v>
+      </c>
+      <c r="C37" s="38">
         <v>16</v>
       </c>
-      <c r="D37" s="27" t="s">
+      <c r="D37" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E37" s="33">
+      <c r="E37" s="32">
         <v>3.7989999999999999</v>
       </c>
-      <c r="F37" s="52">
+      <c r="F37" s="51">
         <f t="shared" ref="F37" si="22">$G$21/E37</f>
         <v>0.77048433798367999</v>
       </c>
-      <c r="G37" s="29"/>
+      <c r="G37" s="28"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
@@ -2803,6 +2825,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="7"/>
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="5"/>
+  <pixelatorList sheetStid="6"/>
+</pixelators>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <woSheetsProps>
     <woSheetProps sheetStid="7" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0" isDbDashBoardSheet="0" isFlexPaperSheet="0">
@@ -2832,19 +2865,8 @@
 </woProps>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="7"/>
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="3"/>
-  <pixelatorList sheetStid="5"/>
-  <pixelatorList sheetStid="6"/>
-</pixelators>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -2853,7 +2875,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
